--- a/data/hake_from_ss.xlsx
+++ b/data/hake_from_ss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D996BD36-13F6-264C-A00C-2F1BBE80AAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF6D64-B2BE-A945-89B3-708FE4630ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="494">
   <si>
     <t>Number</t>
   </si>
@@ -1242,6 +1242,297 @@
   </si>
   <si>
     <t>Hake_wt</t>
+  </si>
+  <si>
+    <t>Length_21</t>
+  </si>
+  <si>
+    <t>Length_22</t>
+  </si>
+  <si>
+    <t>Length_23</t>
+  </si>
+  <si>
+    <t>Length_24</t>
+  </si>
+  <si>
+    <t>Length_25</t>
+  </si>
+  <si>
+    <t>Length_26</t>
+  </si>
+  <si>
+    <t>Length_27</t>
+  </si>
+  <si>
+    <t>Length_28</t>
+  </si>
+  <si>
+    <t>Length_29</t>
+  </si>
+  <si>
+    <t>Length_30</t>
+  </si>
+  <si>
+    <t>Length_31</t>
+  </si>
+  <si>
+    <t>Length_32</t>
+  </si>
+  <si>
+    <t>Length_33</t>
+  </si>
+  <si>
+    <t>Length_34</t>
+  </si>
+  <si>
+    <t>Length_35</t>
+  </si>
+  <si>
+    <t>Length_36</t>
+  </si>
+  <si>
+    <t>Length_37</t>
+  </si>
+  <si>
+    <t>Length_38</t>
+  </si>
+  <si>
+    <t>Length_39</t>
+  </si>
+  <si>
+    <t>Length_40</t>
+  </si>
+  <si>
+    <t>Length_41</t>
+  </si>
+  <si>
+    <t>Length_42</t>
+  </si>
+  <si>
+    <t>Length_43</t>
+  </si>
+  <si>
+    <t>Length_44</t>
+  </si>
+  <si>
+    <t>Length_45</t>
+  </si>
+  <si>
+    <t>Length_46</t>
+  </si>
+  <si>
+    <t>Length_47</t>
+  </si>
+  <si>
+    <t>Length_48</t>
+  </si>
+  <si>
+    <t>Length_49</t>
+  </si>
+  <si>
+    <t>Length_50</t>
+  </si>
+  <si>
+    <t>Length_51</t>
+  </si>
+  <si>
+    <t>Length_52</t>
+  </si>
+  <si>
+    <t>Length_53</t>
+  </si>
+  <si>
+    <t>Length_54</t>
+  </si>
+  <si>
+    <t>Length_55</t>
+  </si>
+  <si>
+    <t>Length_56</t>
+  </si>
+  <si>
+    <t>Length_57</t>
+  </si>
+  <si>
+    <t>Length_58</t>
+  </si>
+  <si>
+    <t>Length_59</t>
+  </si>
+  <si>
+    <t>Length_60</t>
+  </si>
+  <si>
+    <t>Length_61</t>
+  </si>
+  <si>
+    <t>Length_62</t>
+  </si>
+  <si>
+    <t>Length_63</t>
+  </si>
+  <si>
+    <t>Length_64</t>
+  </si>
+  <si>
+    <t>Length_65</t>
+  </si>
+  <si>
+    <t>Length_66</t>
+  </si>
+  <si>
+    <t>Length_67</t>
+  </si>
+  <si>
+    <t>Length_68</t>
+  </si>
+  <si>
+    <t>Length_69</t>
+  </si>
+  <si>
+    <t>Length_70</t>
+  </si>
+  <si>
+    <t>Length_71</t>
+  </si>
+  <si>
+    <t>Length_72</t>
+  </si>
+  <si>
+    <t>Length_73</t>
+  </si>
+  <si>
+    <t>Length_74</t>
+  </si>
+  <si>
+    <t>Length_75</t>
+  </si>
+  <si>
+    <t>Length_76</t>
+  </si>
+  <si>
+    <t>Length_77</t>
+  </si>
+  <si>
+    <t>Length_78</t>
+  </si>
+  <si>
+    <t>Length_79</t>
+  </si>
+  <si>
+    <t>Length_80</t>
+  </si>
+  <si>
+    <t>Length_81</t>
+  </si>
+  <si>
+    <t>Length_82</t>
+  </si>
+  <si>
+    <t>Length_83</t>
+  </si>
+  <si>
+    <t>Length_84</t>
+  </si>
+  <si>
+    <t>Length_85</t>
+  </si>
+  <si>
+    <t>Length_86</t>
+  </si>
+  <si>
+    <t>Length_87</t>
+  </si>
+  <si>
+    <t>Length_88</t>
+  </si>
+  <si>
+    <t>Length_89</t>
+  </si>
+  <si>
+    <t>Length_90</t>
+  </si>
+  <si>
+    <t>Length_91</t>
+  </si>
+  <si>
+    <t>Length_92</t>
+  </si>
+  <si>
+    <t>Length_93</t>
+  </si>
+  <si>
+    <t>Length_94</t>
+  </si>
+  <si>
+    <t>Length_95</t>
+  </si>
+  <si>
+    <t>Length_96</t>
+  </si>
+  <si>
+    <t>Length_97</t>
+  </si>
+  <si>
+    <t>Length_98</t>
+  </si>
+  <si>
+    <t>Length_99</t>
+  </si>
+  <si>
+    <t>Length_100</t>
+  </si>
+  <si>
+    <t>Length_101</t>
+  </si>
+  <si>
+    <t>Length_102</t>
+  </si>
+  <si>
+    <t>Length_103</t>
+  </si>
+  <si>
+    <t>Length_104</t>
+  </si>
+  <si>
+    <t>Length_105</t>
+  </si>
+  <si>
+    <t>Length_106</t>
+  </si>
+  <si>
+    <t>Length_107</t>
+  </si>
+  <si>
+    <t>Length_108</t>
+  </si>
+  <si>
+    <t>Length_109</t>
+  </si>
+  <si>
+    <t>Length_110</t>
+  </si>
+  <si>
+    <t>Length_111</t>
+  </si>
+  <si>
+    <t>Length_112</t>
+  </si>
+  <si>
+    <t>Length_113</t>
+  </si>
+  <si>
+    <t>Length_114</t>
+  </si>
+  <si>
+    <t>Length_115</t>
+  </si>
+  <si>
+    <t>Length_116</t>
+  </si>
+  <si>
+    <t>Length_117</t>
   </si>
 </sst>
 </file>
@@ -9378,7 +9669,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9477,7 +9768,7 @@
         <v>49</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9646,7 +9937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -11769,7 +12060,7 @@
   <dimension ref="A1:DU59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E59"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16281,8 +16572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28820,15 +29111,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:DR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="104" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="122" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:122" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
@@ -28904,8 +29204,299 @@
       <c r="Y1" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -28981,8 +29572,299 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>395</v>
       </c>
@@ -29058,8 +29940,299 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>395</v>
       </c>
@@ -29135,8 +30308,299 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>395</v>
       </c>
@@ -29212,8 +30676,299 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>395</v>
       </c>
@@ -29289,8 +31044,299 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>395</v>
       </c>
@@ -29366,8 +31412,299 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>395</v>
       </c>
@@ -29443,8 +31780,299 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -29520,8 +32148,299 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>395</v>
       </c>
@@ -29597,8 +32516,299 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>395</v>
       </c>
@@ -29674,8 +32884,299 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>395</v>
       </c>
@@ -29751,8 +33252,26 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>395</v>
       </c>
@@ -29828,8 +33347,26 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>395</v>
       </c>
@@ -29905,8 +33442,26 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>395</v>
       </c>
@@ -29982,8 +33537,26 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>395</v>
       </c>
@@ -30059,8 +33632,26 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>395</v>
       </c>
@@ -30136,8 +33727,26 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -30213,8 +33822,26 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -30290,8 +33917,26 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>395</v>
       </c>
@@ -30367,8 +34012,26 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>395</v>
       </c>
@@ -30442,6 +34105,24 @@
         <v>0</v>
       </c>
       <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>0</v>
       </c>
     </row>

--- a/data/hake_from_ss.xlsx
+++ b/data/hake_from_ss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1207EA80-0E56-7B40-B2F3-7AB71055A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5925D8C3-E0E8-EE4B-B074-847C390C95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="493">
   <si>
     <t>Number</t>
   </si>
@@ -8957,15 +8957,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9029,8 +9029,38 @@
       <c r="U1" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9286,7 +9316,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9353,7 +9383,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9425,7 +9455,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9446,10 +9476,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.5313539999999996E-3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.0459800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9580,7 +9610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -13873,8 +13903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13973,7 +14003,7 @@
         <v>49</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -28645,7 +28675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>

--- a/data/hake_from_ss.xlsx
+++ b/data/hake_from_ss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5925D8C3-E0E8-EE4B-B074-847C390C95AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63882FB-33E9-524A-8BD9-8B3C8BEE12EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="493">
   <si>
     <t>Number</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>Hake</t>
   </si>
   <si>
-    <t>Hake_wt</t>
-  </si>
-  <si>
     <t>Length_21</t>
   </si>
   <si>
@@ -1530,6 +1527,9 @@
   </si>
   <si>
     <t>Length_117</t>
+  </si>
+  <si>
+    <t>Hake_mid_year_pop_weight</t>
   </si>
 </sst>
 </file>
@@ -4337,15 +4337,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="B56" sqref="B56:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4472,49 +4472,49 @@
         <v>1966</v>
       </c>
       <c r="F2">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G2">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H2">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I2">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J2">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K2">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L2">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M2">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N2">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O2">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P2">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R2">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S2">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T2">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U2">
         <v>1.0308999999999999</v>
@@ -4531,13 +4531,10 @@
       <c r="Y2">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z2">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4552,49 +4549,49 @@
         <v>1967</v>
       </c>
       <c r="F3">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G3">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H3">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I3">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J3">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K3">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L3">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M3">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N3">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O3">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P3">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R3">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S3">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T3">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U3">
         <v>1.0308999999999999</v>
@@ -4611,13 +4608,10 @@
       <c r="Y3">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z3">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4632,49 +4626,49 @@
         <v>1968</v>
       </c>
       <c r="F4">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G4">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H4">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I4">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J4">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K4">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L4">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M4">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N4">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O4">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P4">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R4">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S4">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T4">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U4">
         <v>1.0308999999999999</v>
@@ -4691,13 +4685,10 @@
       <c r="Y4">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z4">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4712,49 +4703,49 @@
         <v>1969</v>
       </c>
       <c r="F5">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G5">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H5">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I5">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J5">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K5">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L5">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M5">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N5">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O5">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P5">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R5">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S5">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T5">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U5">
         <v>1.0308999999999999</v>
@@ -4771,13 +4762,10 @@
       <c r="Y5">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z5">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4792,49 +4780,49 @@
         <v>1970</v>
       </c>
       <c r="F6">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G6">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H6">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I6">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J6">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K6">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L6">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M6">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N6">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O6">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P6">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R6">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S6">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T6">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U6">
         <v>1.0308999999999999</v>
@@ -4851,13 +4839,10 @@
       <c r="Y6">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z6">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4872,49 +4857,49 @@
         <v>1971</v>
       </c>
       <c r="F7">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G7">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H7">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I7">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J7">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K7">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L7">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M7">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N7">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O7">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P7">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R7">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S7">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T7">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U7">
         <v>1.0308999999999999</v>
@@ -4931,13 +4916,10 @@
       <c r="Y7">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z7">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4952,49 +4934,49 @@
         <v>1972</v>
       </c>
       <c r="F8">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G8">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H8">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I8">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J8">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K8">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L8">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M8">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N8">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O8">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P8">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R8">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S8">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T8">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U8">
         <v>1.0308999999999999</v>
@@ -5011,13 +4993,10 @@
       <c r="Y8">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z8">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5032,49 +5011,49 @@
         <v>1973</v>
       </c>
       <c r="F9">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G9">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H9">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I9">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J9">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K9">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L9">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M9">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N9">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O9">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P9">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R9">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S9">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T9">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U9">
         <v>1.0308999999999999</v>
@@ -5091,13 +5070,10 @@
       <c r="Y9">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z9">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5112,49 +5088,49 @@
         <v>1974</v>
       </c>
       <c r="F10">
-        <v>1.6899999999999998E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="G10">
-        <v>9.4200000000000006E-2</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="H10">
-        <v>0.25659999999999999</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="I10">
-        <v>0.38269999999999998</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="J10">
-        <v>0.48480000000000001</v>
+        <v>0.53220000000000001</v>
       </c>
       <c r="K10">
-        <v>0.53220000000000001</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="L10">
-        <v>0.58089999999999997</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M10">
-        <v>0.64580000000000004</v>
+        <v>0.7117</v>
       </c>
       <c r="N10">
-        <v>0.7117</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="O10">
-        <v>0.76949999999999996</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="P10">
-        <v>0.85429999999999995</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.92530000000000001</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="R10">
-        <v>0.96430000000000005</v>
+        <v>1.0598000000000001</v>
       </c>
       <c r="S10">
-        <v>1.0598000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="T10">
-        <v>1.0029999999999999</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="U10">
         <v>1.0308999999999999</v>
@@ -5171,13 +5147,10 @@
       <c r="Y10">
         <v>1.0308999999999999</v>
       </c>
-      <c r="Z10">
-        <v>1.0308999999999999</v>
-      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5192,49 +5165,49 @@
         <v>1975</v>
       </c>
       <c r="F11">
-        <v>5.5E-2</v>
+        <v>0.1575</v>
       </c>
       <c r="G11">
-        <v>0.1575</v>
+        <v>0.29870000000000002</v>
       </c>
       <c r="H11">
-        <v>0.29870000000000002</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="I11">
-        <v>0.36580000000000001</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="J11">
-        <v>0.61429999999999996</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="K11">
-        <v>0.63060000000000005</v>
+        <v>0.7873</v>
       </c>
       <c r="L11">
-        <v>0.7873</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="M11">
-        <v>0.87380000000000002</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="N11">
-        <v>0.96779999999999999</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="O11">
-        <v>0.90749999999999997</v>
+        <v>0.97</v>
       </c>
       <c r="P11">
-        <v>0.97</v>
+        <v>1.6933</v>
       </c>
       <c r="Q11">
-        <v>1.6933</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.9555</v>
       </c>
       <c r="T11">
-        <v>1.9555</v>
+        <v>2.7444999999999999</v>
       </c>
       <c r="U11">
         <v>2.7444999999999999</v>
@@ -5251,13 +5224,10 @@
       <c r="Y11">
         <v>2.7444999999999999</v>
       </c>
-      <c r="Z11">
-        <v>2.7444999999999999</v>
-      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5272,49 +5242,49 @@
         <v>1976</v>
       </c>
       <c r="F12">
-        <v>5.5E-2</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="G12">
-        <v>9.8599999999999993E-2</v>
+        <v>0.2359</v>
       </c>
       <c r="H12">
-        <v>0.2359</v>
+        <v>0.499</v>
       </c>
       <c r="I12">
-        <v>0.499</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="J12">
-        <v>0.51880000000000004</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="K12">
-        <v>0.69359999999999999</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="L12">
-        <v>0.80379999999999996</v>
+        <v>0.91649999999999998</v>
       </c>
       <c r="M12">
-        <v>0.91649999999999998</v>
+        <v>1.2062999999999999</v>
       </c>
       <c r="N12">
-        <v>1.2062999999999999</v>
+        <v>1.3334999999999999</v>
       </c>
       <c r="O12">
-        <v>1.3334999999999999</v>
+        <v>1.4495</v>
       </c>
       <c r="P12">
-        <v>1.4495</v>
+        <v>1.6507000000000001</v>
       </c>
       <c r="Q12">
-        <v>1.6507000000000001</v>
+        <v>1.8066</v>
       </c>
       <c r="R12">
-        <v>1.8066</v>
+        <v>1.8588</v>
       </c>
       <c r="S12">
-        <v>1.8588</v>
+        <v>1.9555</v>
       </c>
       <c r="T12">
-        <v>1.9555</v>
+        <v>2.7444999999999999</v>
       </c>
       <c r="U12">
         <v>2.7444999999999999</v>
@@ -5331,13 +5301,10 @@
       <c r="Y12">
         <v>2.7444999999999999</v>
       </c>
-      <c r="Z12">
-        <v>2.7444999999999999</v>
-      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5352,49 +5319,49 @@
         <v>1977</v>
       </c>
       <c r="F13">
-        <v>5.5E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="G13">
-        <v>8.5500000000000007E-2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="H13">
-        <v>0.40200000000000002</v>
+        <v>0.48820000000000002</v>
       </c>
       <c r="I13">
-        <v>0.48820000000000002</v>
+        <v>0.59019999999999995</v>
       </c>
       <c r="J13">
-        <v>0.59019999999999995</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="K13">
-        <v>0.66500000000000004</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="L13">
-        <v>0.74890000000000001</v>
+        <v>0.82720000000000005</v>
       </c>
       <c r="M13">
-        <v>0.82720000000000005</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="N13">
-        <v>0.97789999999999999</v>
+        <v>1.1052</v>
       </c>
       <c r="O13">
-        <v>1.1052</v>
+        <v>1.2341</v>
       </c>
       <c r="P13">
-        <v>1.2341</v>
+        <v>1.3148</v>
       </c>
       <c r="Q13">
-        <v>1.3148</v>
+        <v>1.4027000000000001</v>
       </c>
       <c r="R13">
-        <v>1.4027000000000001</v>
+        <v>1.7511000000000001</v>
       </c>
       <c r="S13">
-        <v>1.7511000000000001</v>
+        <v>2.1004999999999998</v>
       </c>
       <c r="T13">
-        <v>2.1004999999999998</v>
+        <v>2.2094</v>
       </c>
       <c r="U13">
         <v>2.2094</v>
@@ -5411,13 +5378,10 @@
       <c r="Y13">
         <v>2.2094</v>
       </c>
-      <c r="Z13">
-        <v>2.2094</v>
-      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5432,49 +5396,49 @@
         <v>1978</v>
       </c>
       <c r="F14">
-        <v>5.1700000000000003E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="G14">
-        <v>7.2499999999999995E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="H14">
-        <v>0.1275</v>
+        <v>0.46989999999999998</v>
       </c>
       <c r="I14">
-        <v>0.46989999999999998</v>
+        <v>0.5302</v>
       </c>
       <c r="J14">
-        <v>0.5302</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="K14">
-        <v>0.60260000000000002</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="L14">
-        <v>0.63919999999999999</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="M14">
-        <v>0.73970000000000002</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="N14">
-        <v>0.84219999999999995</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="O14">
-        <v>0.98109999999999997</v>
+        <v>1.0996999999999999</v>
       </c>
       <c r="P14">
-        <v>1.0996999999999999</v>
+        <v>1.2459</v>
       </c>
       <c r="Q14">
-        <v>1.2459</v>
+        <v>1.3294999999999999</v>
       </c>
       <c r="R14">
-        <v>1.3294999999999999</v>
+        <v>1.4814000000000001</v>
       </c>
       <c r="S14">
-        <v>1.4814000000000001</v>
+        <v>1.7419</v>
       </c>
       <c r="T14">
-        <v>1.7419</v>
+        <v>2.3353000000000002</v>
       </c>
       <c r="U14">
         <v>2.3353000000000002</v>
@@ -5491,13 +5455,10 @@
       <c r="Y14">
         <v>2.3353000000000002</v>
       </c>
-      <c r="Z14">
-        <v>2.3353000000000002</v>
-      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5512,49 +5473,49 @@
         <v>1979</v>
       </c>
       <c r="F15">
-        <v>4.8399999999999999E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="G15">
-        <v>7.6300000000000007E-2</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="H15">
-        <v>0.24099999999999999</v>
+        <v>0.25869999999999999</v>
       </c>
       <c r="I15">
-        <v>0.25869999999999999</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="J15">
-        <v>0.58209999999999995</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="K15">
-        <v>0.68679999999999997</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="L15">
-        <v>0.76770000000000005</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="M15">
-        <v>0.89090000000000003</v>
+        <v>0.91279999999999994</v>
       </c>
       <c r="N15">
-        <v>0.91279999999999994</v>
+        <v>1.0368999999999999</v>
       </c>
       <c r="O15">
-        <v>1.0368999999999999</v>
+        <v>1.1987000000000001</v>
       </c>
       <c r="P15">
-        <v>1.1987000000000001</v>
+        <v>1.2482</v>
       </c>
       <c r="Q15">
-        <v>1.2482</v>
+        <v>1.5326</v>
       </c>
       <c r="R15">
-        <v>1.5326</v>
+        <v>1.552</v>
       </c>
       <c r="S15">
-        <v>1.552</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="T15">
-        <v>1.7949999999999999</v>
+        <v>1.9817</v>
       </c>
       <c r="U15">
         <v>1.9817</v>
@@ -5571,13 +5532,10 @@
       <c r="Y15">
         <v>1.9817</v>
       </c>
-      <c r="Z15">
-        <v>1.9817</v>
-      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5592,49 +5550,49 @@
         <v>1980</v>
       </c>
       <c r="F16">
-        <v>4.5199999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G16">
-        <v>0.08</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="H16">
-        <v>0.21249999999999999</v>
+        <v>0.45290000000000002</v>
       </c>
       <c r="I16">
-        <v>0.45290000000000002</v>
+        <v>0.39219999999999999</v>
       </c>
       <c r="J16">
-        <v>0.39219999999999999</v>
+        <v>0.4904</v>
       </c>
       <c r="K16">
-        <v>0.4904</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="L16">
-        <v>0.51659999999999995</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="M16">
-        <v>0.65539999999999998</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="N16">
-        <v>0.71360000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="O16">
-        <v>0.874</v>
+        <v>1.0626</v>
       </c>
       <c r="P16">
-        <v>1.0626</v>
+        <v>1.1623000000000001</v>
       </c>
       <c r="Q16">
-        <v>1.1623000000000001</v>
+        <v>1.2898000000000001</v>
       </c>
       <c r="R16">
-        <v>1.2898000000000001</v>
+        <v>1.3001</v>
       </c>
       <c r="S16">
-        <v>1.3001</v>
+        <v>1.2699</v>
       </c>
       <c r="T16">
-        <v>1.2699</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="U16">
         <v>1.3960999999999999</v>
@@ -5651,13 +5609,10 @@
       <c r="Y16">
         <v>1.3960999999999999</v>
       </c>
-      <c r="Z16">
-        <v>1.3960999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5672,49 +5627,49 @@
         <v>1981</v>
       </c>
       <c r="F17">
-        <v>4.19E-2</v>
+        <v>0.1074</v>
       </c>
       <c r="G17">
-        <v>0.1074</v>
+        <v>0.2137</v>
       </c>
       <c r="H17">
-        <v>0.2137</v>
+        <v>0.3422</v>
       </c>
       <c r="I17">
-        <v>0.3422</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="J17">
-        <v>0.52639999999999998</v>
+        <v>0.39329999999999998</v>
       </c>
       <c r="K17">
-        <v>0.39329999999999998</v>
+        <v>0.52539999999999998</v>
       </c>
       <c r="L17">
-        <v>0.52539999999999998</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="M17">
-        <v>0.54620000000000002</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="N17">
-        <v>0.74639999999999995</v>
+        <v>0.72040000000000004</v>
       </c>
       <c r="O17">
-        <v>0.72040000000000004</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="P17">
-        <v>0.82310000000000005</v>
+        <v>1.0412999999999999</v>
       </c>
       <c r="Q17">
-        <v>1.0412999999999999</v>
+        <v>1.0989</v>
       </c>
       <c r="R17">
-        <v>1.0989</v>
+        <v>1.3449</v>
       </c>
       <c r="S17">
-        <v>1.3449</v>
+        <v>1.4925999999999999</v>
       </c>
       <c r="T17">
-        <v>1.4925999999999999</v>
+        <v>1.2128000000000001</v>
       </c>
       <c r="U17">
         <v>1.2128000000000001</v>
@@ -5731,13 +5686,10 @@
       <c r="Y17">
         <v>1.2128000000000001</v>
       </c>
-      <c r="Z17">
-        <v>1.2128000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5752,49 +5704,49 @@
         <v>1982</v>
       </c>
       <c r="F18">
-        <v>3.8600000000000002E-2</v>
+        <v>0.1181</v>
       </c>
       <c r="G18">
-        <v>0.1181</v>
+        <v>0.2465</v>
       </c>
       <c r="H18">
-        <v>0.2465</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="I18">
-        <v>0.33360000000000001</v>
+        <v>0.30969999999999998</v>
       </c>
       <c r="J18">
-        <v>0.30969999999999998</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="K18">
-        <v>0.54959999999999998</v>
+        <v>0.39560000000000001</v>
       </c>
       <c r="L18">
-        <v>0.39560000000000001</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="M18">
-        <v>0.52749999999999997</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="N18">
-        <v>0.56289999999999996</v>
+        <v>0.76060000000000005</v>
       </c>
       <c r="O18">
-        <v>0.76060000000000005</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="P18">
-        <v>0.68369999999999997</v>
+        <v>0.85389999999999999</v>
       </c>
       <c r="Q18">
-        <v>0.85389999999999999</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="R18">
-        <v>1.0669999999999999</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="S18">
-        <v>0.87929999999999997</v>
+        <v>1.0185999999999999</v>
       </c>
       <c r="T18">
-        <v>1.0185999999999999</v>
+        <v>1.1693</v>
       </c>
       <c r="U18">
         <v>1.1693</v>
@@ -5811,13 +5763,10 @@
       <c r="Y18">
         <v>1.1693</v>
       </c>
-      <c r="Z18">
-        <v>1.1693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5832,49 +5781,49 @@
         <v>1983</v>
       </c>
       <c r="F19">
-        <v>3.5299999999999998E-2</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="G19">
-        <v>0.12870000000000001</v>
+        <v>0.13569999999999999</v>
       </c>
       <c r="H19">
-        <v>0.13569999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="I19">
-        <v>0.34100000000000003</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="J19">
-        <v>0.36940000000000001</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="K19">
-        <v>0.32769999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="L19">
-        <v>0.52</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="M19">
-        <v>0.50280000000000002</v>
+        <v>0.6179</v>
       </c>
       <c r="N19">
-        <v>0.6179</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="O19">
-        <v>0.70599999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="P19">
-        <v>0.88</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="Q19">
-        <v>0.92989999999999995</v>
+        <v>1.0356000000000001</v>
       </c>
       <c r="R19">
-        <v>1.0356000000000001</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="S19">
-        <v>1.0309999999999999</v>
+        <v>1.3217000000000001</v>
       </c>
       <c r="T19">
-        <v>1.3217000000000001</v>
+        <v>1.4823</v>
       </c>
       <c r="U19">
         <v>1.4823</v>
@@ -5891,13 +5840,10 @@
       <c r="Y19">
         <v>1.4823</v>
       </c>
-      <c r="Z19">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5912,49 +5858,49 @@
         <v>1984</v>
       </c>
       <c r="F20">
-        <v>3.2099999999999997E-2</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="G20">
-        <v>0.13150000000000001</v>
+        <v>0.16420000000000001</v>
       </c>
       <c r="H20">
-        <v>0.16420000000000001</v>
+        <v>0.24929999999999999</v>
       </c>
       <c r="I20">
-        <v>0.24929999999999999</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="J20">
-        <v>0.43840000000000001</v>
+        <v>0.4113</v>
       </c>
       <c r="K20">
-        <v>0.4113</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="L20">
-        <v>0.43519999999999998</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="M20">
-        <v>0.58720000000000006</v>
+        <v>0.58020000000000005</v>
       </c>
       <c r="N20">
-        <v>0.58020000000000005</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="O20">
-        <v>0.67579999999999996</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="P20">
-        <v>0.70099999999999996</v>
+        <v>0.95130000000000003</v>
       </c>
       <c r="Q20">
-        <v>0.95130000000000003</v>
+        <v>1.1364000000000001</v>
       </c>
       <c r="R20">
-        <v>1.1364000000000001</v>
+        <v>1.0258</v>
       </c>
       <c r="S20">
-        <v>1.0258</v>
+        <v>1.2806999999999999</v>
       </c>
       <c r="T20">
-        <v>1.2806999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="U20">
         <v>1.88</v>
@@ -5971,13 +5917,10 @@
       <c r="Y20">
         <v>1.88</v>
       </c>
-      <c r="Z20">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5992,49 +5935,49 @@
         <v>1985</v>
       </c>
       <c r="F21">
-        <v>2.8799999999999999E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G21">
-        <v>0.17399999999999999</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="H21">
-        <v>0.22969999999999999</v>
+        <v>0.26790000000000003</v>
       </c>
       <c r="I21">
-        <v>0.26790000000000003</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="J21">
-        <v>0.44140000000000001</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="K21">
-        <v>0.54959999999999998</v>
+        <v>0.5474</v>
       </c>
       <c r="L21">
-        <v>0.5474</v>
+        <v>0.60170000000000001</v>
       </c>
       <c r="M21">
-        <v>0.60170000000000001</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="N21">
-        <v>0.74519999999999997</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="O21">
-        <v>0.69330000000000003</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="P21">
-        <v>0.72309999999999997</v>
+        <v>0.85840000000000005</v>
       </c>
       <c r="Q21">
-        <v>0.85840000000000005</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="R21">
-        <v>0.86980000000000002</v>
+        <v>0.94579999999999997</v>
       </c>
       <c r="S21">
-        <v>0.94579999999999997</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="T21">
-        <v>0.67589999999999995</v>
+        <v>1.1216999999999999</v>
       </c>
       <c r="U21">
         <v>1.1216999999999999</v>
@@ -6051,13 +5994,10 @@
       <c r="Y21">
         <v>1.1216999999999999</v>
       </c>
-      <c r="Z21">
-        <v>1.1216999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6072,49 +6012,49 @@
         <v>1986</v>
       </c>
       <c r="F22">
-        <v>2.5499999999999998E-2</v>
+        <v>0.1555</v>
       </c>
       <c r="G22">
-        <v>0.1555</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H22">
-        <v>0.27800000000000002</v>
+        <v>0.29060000000000002</v>
       </c>
       <c r="I22">
-        <v>0.29060000000000002</v>
+        <v>0.3024</v>
       </c>
       <c r="J22">
-        <v>0.3024</v>
+        <v>0.3735</v>
       </c>
       <c r="K22">
-        <v>0.3735</v>
+        <v>0.54259999999999997</v>
       </c>
       <c r="L22">
-        <v>0.54259999999999997</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="M22">
-        <v>0.57199999999999995</v>
+        <v>0.6421</v>
       </c>
       <c r="N22">
-        <v>0.6421</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="O22">
-        <v>0.82089999999999996</v>
+        <v>0.94030000000000002</v>
       </c>
       <c r="P22">
-        <v>0.94030000000000002</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="Q22">
-        <v>1.1859999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="R22">
-        <v>1.19</v>
+        <v>1.3736999999999999</v>
       </c>
       <c r="S22">
-        <v>1.3736999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="T22">
-        <v>1.68</v>
+        <v>1.6142000000000001</v>
       </c>
       <c r="U22">
         <v>1.6142000000000001</v>
@@ -6131,13 +6071,10 @@
       <c r="Y22">
         <v>1.6142000000000001</v>
       </c>
-      <c r="Z22">
-        <v>1.6142000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6152,49 +6089,49 @@
         <v>1987</v>
       </c>
       <c r="F23">
-        <v>2.2200000000000001E-2</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="G23">
-        <v>0.14779999999999999</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="H23">
-        <v>0.13880000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="I23">
-        <v>0.379</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="J23">
-        <v>0.27860000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="K23">
-        <v>0.28699999999999998</v>
+        <v>0.36209999999999998</v>
       </c>
       <c r="L23">
-        <v>0.36209999999999998</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="M23">
-        <v>0.57750000000000001</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="N23">
-        <v>0.59750000000000003</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="O23">
-        <v>0.63690000000000002</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="P23">
-        <v>0.76380000000000003</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="Q23">
-        <v>0.98199999999999998</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="R23">
-        <v>0.92500000000000004</v>
+        <v>1.2406999999999999</v>
       </c>
       <c r="S23">
-        <v>1.2406999999999999</v>
+        <v>1.2031000000000001</v>
       </c>
       <c r="T23">
-        <v>1.2031000000000001</v>
+        <v>1.4157</v>
       </c>
       <c r="U23">
         <v>1.4157</v>
@@ -6211,13 +6148,10 @@
       <c r="Y23">
         <v>1.4157</v>
       </c>
-      <c r="Z23">
-        <v>1.4157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6232,49 +6166,49 @@
         <v>1988</v>
       </c>
       <c r="F24">
-        <v>1.9E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G24">
-        <v>0.14000000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="H24">
-        <v>0.187</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="I24">
-        <v>0.31890000000000002</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="J24">
-        <v>0.47110000000000002</v>
+        <v>0.36890000000000001</v>
       </c>
       <c r="K24">
-        <v>0.36890000000000001</v>
+        <v>0.37309999999999999</v>
       </c>
       <c r="L24">
-        <v>0.37309999999999999</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="M24">
-        <v>0.51629999999999998</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="N24">
-        <v>0.64710000000000001</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="O24">
-        <v>0.68840000000000001</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="P24">
-        <v>0.71830000000000005</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="Q24">
-        <v>0.92110000000000003</v>
+        <v>1.0924</v>
       </c>
       <c r="R24">
-        <v>1.0924</v>
+        <v>1.0225</v>
       </c>
       <c r="S24">
-        <v>1.0225</v>
+        <v>1.45</v>
       </c>
       <c r="T24">
-        <v>1.45</v>
+        <v>1.4537</v>
       </c>
       <c r="U24">
         <v>1.4537</v>
@@ -6291,13 +6225,10 @@
       <c r="Y24">
         <v>1.4537</v>
       </c>
-      <c r="Z24">
-        <v>1.4537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6312,49 +6243,49 @@
         <v>1989</v>
       </c>
       <c r="F25">
-        <v>1.5699999999999999E-2</v>
+        <v>0.1389</v>
       </c>
       <c r="G25">
-        <v>0.1389</v>
+        <v>0.2737</v>
       </c>
       <c r="H25">
-        <v>0.2737</v>
+        <v>0.30470000000000003</v>
       </c>
       <c r="I25">
-        <v>0.30470000000000003</v>
+        <v>0.29310000000000003</v>
       </c>
       <c r="J25">
-        <v>0.29310000000000003</v>
+        <v>0.51339999999999997</v>
       </c>
       <c r="K25">
-        <v>0.51339999999999997</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="L25">
-        <v>0.43859999999999999</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="M25">
-        <v>0.40639999999999998</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="N25">
-        <v>0.51670000000000005</v>
+        <v>0.62629999999999997</v>
       </c>
       <c r="O25">
-        <v>0.62629999999999997</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="P25">
-        <v>0.66110000000000002</v>
+        <v>0.60270000000000001</v>
       </c>
       <c r="Q25">
-        <v>0.60270000000000001</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="R25">
-        <v>0.87580000000000002</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="S25">
-        <v>0.66859999999999997</v>
+        <v>0.82820000000000005</v>
       </c>
       <c r="T25">
-        <v>0.82820000000000005</v>
+        <v>1.1264000000000001</v>
       </c>
       <c r="U25">
         <v>1.1264000000000001</v>
@@ -6371,13 +6302,10 @@
       <c r="Y25">
         <v>1.1264000000000001</v>
       </c>
-      <c r="Z25">
-        <v>1.1264000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6392,49 +6320,49 @@
         <v>1990</v>
       </c>
       <c r="F26">
-        <v>1.5599999999999999E-2</v>
+        <v>0.13780000000000001</v>
       </c>
       <c r="G26">
-        <v>0.13780000000000001</v>
+        <v>0.24349999999999999</v>
       </c>
       <c r="H26">
-        <v>0.24349999999999999</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="I26">
-        <v>0.35060000000000002</v>
+        <v>0.3906</v>
       </c>
       <c r="J26">
-        <v>0.3906</v>
+        <v>0.5111</v>
       </c>
       <c r="K26">
-        <v>0.5111</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="L26">
-        <v>0.54620000000000002</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="M26">
-        <v>0.60760000000000003</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="N26">
-        <v>0.66779999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="O26">
-        <v>0.53</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="P26">
-        <v>0.76970000000000005</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="Q26">
-        <v>0.83120000000000005</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R26">
-        <v>2.2000000000000002</v>
+        <v>1.1847000000000001</v>
       </c>
       <c r="S26">
-        <v>1.1847000000000001</v>
+        <v>1.0165999999999999</v>
       </c>
       <c r="T26">
-        <v>1.0165999999999999</v>
+        <v>1.4668000000000001</v>
       </c>
       <c r="U26">
         <v>1.4668000000000001</v>
@@ -6451,13 +6379,10 @@
       <c r="Y26">
         <v>1.4668000000000001</v>
       </c>
-      <c r="Z26">
-        <v>1.4668000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6472,49 +6397,49 @@
         <v>1991</v>
       </c>
       <c r="F27">
-        <v>1.5599999999999999E-2</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="G27">
-        <v>0.13669999999999999</v>
+        <v>0.27539999999999998</v>
       </c>
       <c r="H27">
-        <v>0.27539999999999998</v>
+        <v>0.36969999999999997</v>
       </c>
       <c r="I27">
-        <v>0.36969999999999997</v>
+        <v>0.45979999999999999</v>
       </c>
       <c r="J27">
-        <v>0.45979999999999999</v>
+        <v>0.51380000000000003</v>
       </c>
       <c r="K27">
-        <v>0.51380000000000003</v>
+        <v>0.54369999999999996</v>
       </c>
       <c r="L27">
-        <v>0.54369999999999996</v>
+        <v>0.5907</v>
       </c>
       <c r="M27">
-        <v>0.5907</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="N27">
-        <v>0.72099999999999997</v>
+        <v>0.84970000000000001</v>
       </c>
       <c r="O27">
-        <v>0.84970000000000001</v>
+        <v>1.0996999999999999</v>
       </c>
       <c r="P27">
-        <v>1.0996999999999999</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="Q27">
-        <v>0.71850000000000003</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="R27">
-        <v>0.64029999999999998</v>
+        <v>1.0174000000000001</v>
       </c>
       <c r="S27">
-        <v>1.0174000000000001</v>
+        <v>1.2051000000000001</v>
       </c>
       <c r="T27">
-        <v>1.2051000000000001</v>
+        <v>2.3828</v>
       </c>
       <c r="U27">
         <v>2.3828</v>
@@ -6531,13 +6456,10 @@
       <c r="Y27">
         <v>2.3828</v>
       </c>
-      <c r="Z27">
-        <v>2.3828</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6552,49 +6474,49 @@
         <v>1992</v>
       </c>
       <c r="F28">
-        <v>1.55E-2</v>
+        <v>0.1356</v>
       </c>
       <c r="G28">
-        <v>0.1356</v>
+        <v>0.2316</v>
       </c>
       <c r="H28">
-        <v>0.2316</v>
+        <v>0.3473</v>
       </c>
       <c r="I28">
-        <v>0.3473</v>
+        <v>0.4743</v>
       </c>
       <c r="J28">
-        <v>0.4743</v>
+        <v>0.53339999999999999</v>
       </c>
       <c r="K28">
-        <v>0.53339999999999999</v>
+        <v>0.58169999999999999</v>
       </c>
       <c r="L28">
-        <v>0.58169999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="M28">
-        <v>0.621</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="N28">
-        <v>0.64059999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="O28">
-        <v>0.65300000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="P28">
-        <v>0.63300000000000001</v>
+        <v>0.72170000000000001</v>
       </c>
       <c r="Q28">
-        <v>0.72170000000000001</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="R28">
-        <v>0.73540000000000005</v>
+        <v>0.85009999999999997</v>
       </c>
       <c r="S28">
-        <v>0.85009999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="T28">
-        <v>0.97499999999999998</v>
+        <v>1.0271999999999999</v>
       </c>
       <c r="U28">
         <v>1.0271999999999999</v>
@@ -6611,13 +6533,10 @@
       <c r="Y28">
         <v>1.0271999999999999</v>
       </c>
-      <c r="Z28">
-        <v>1.0271999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6632,49 +6551,49 @@
         <v>1993</v>
       </c>
       <c r="F29">
-        <v>1.55E-2</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="G29">
-        <v>0.12740000000000001</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="H29">
-        <v>0.24859999999999999</v>
+        <v>0.33839999999999998</v>
       </c>
       <c r="I29">
-        <v>0.33839999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="J29">
-        <v>0.39600000000000002</v>
+        <v>0.45390000000000003</v>
       </c>
       <c r="K29">
-        <v>0.45390000000000003</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="L29">
-        <v>0.49349999999999999</v>
+        <v>0.50170000000000003</v>
       </c>
       <c r="M29">
-        <v>0.50170000000000003</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="N29">
-        <v>0.48799999999999999</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="O29">
-        <v>0.54910000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="P29">
-        <v>0.51</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="Q29">
-        <v>1.2629999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="R29">
-        <v>1.0249999999999999</v>
+        <v>0.61350000000000005</v>
       </c>
       <c r="S29">
-        <v>0.61350000000000005</v>
+        <v>0.59950000000000003</v>
       </c>
       <c r="T29">
-        <v>0.59950000000000003</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="U29">
         <v>0.68500000000000005</v>
@@ -6691,13 +6610,10 @@
       <c r="Y29">
         <v>0.68500000000000005</v>
       </c>
-      <c r="Z29">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6712,49 +6628,49 @@
         <v>1994</v>
       </c>
       <c r="F30">
-        <v>1.54E-2</v>
+        <v>0.1191</v>
       </c>
       <c r="G30">
-        <v>0.1191</v>
+        <v>0.3</v>
       </c>
       <c r="H30">
-        <v>0.3</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="I30">
-        <v>0.36259999999999998</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="J30">
-        <v>0.44690000000000002</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="K30">
-        <v>0.44729999999999998</v>
+        <v>0.5262</v>
       </c>
       <c r="L30">
-        <v>0.5262</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M30">
-        <v>0.56999999999999995</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="N30">
-        <v>0.62180000000000002</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="O30">
-        <v>0.55979999999999996</v>
+        <v>0.6341</v>
       </c>
       <c r="P30">
-        <v>0.6341</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="Q30">
-        <v>0.48499999999999999</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="R30">
-        <v>0.64910000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S30">
-        <v>0.73</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="T30">
-        <v>0.70130000000000003</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="U30">
         <v>0.74550000000000005</v>
@@ -6771,13 +6687,10 @@
       <c r="Y30">
         <v>0.74550000000000005</v>
       </c>
-      <c r="Z30">
-        <v>0.74550000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6792,49 +6705,49 @@
         <v>1995</v>
       </c>
       <c r="F31">
-        <v>1.54E-2</v>
+        <v>0.1108</v>
       </c>
       <c r="G31">
-        <v>0.1108</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="H31">
-        <v>0.26819999999999999</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="I31">
-        <v>0.34179999999999999</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="J31">
-        <v>0.48759999999999998</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="K31">
-        <v>0.53669999999999995</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="L31">
-        <v>0.65059999999999996</v>
+        <v>0.62490000000000001</v>
       </c>
       <c r="M31">
-        <v>0.62490000000000001</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="N31">
-        <v>0.65969999999999995</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="O31">
-        <v>0.75600000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P31">
-        <v>0.66700000000000004</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="Q31">
-        <v>0.74450000000000005</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="R31">
-        <v>0.79979999999999996</v>
+        <v>0.91010000000000002</v>
       </c>
       <c r="S31">
-        <v>0.91010000000000002</v>
+        <v>0.6804</v>
       </c>
       <c r="T31">
-        <v>0.6804</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="U31">
         <v>0.80079999999999996</v>
@@ -6851,13 +6764,10 @@
       <c r="Y31">
         <v>0.80079999999999996</v>
       </c>
-      <c r="Z31">
-        <v>0.80079999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6872,49 +6782,49 @@
         <v>1996</v>
       </c>
       <c r="F32">
-        <v>1.5299999999999999E-2</v>
+        <v>0.1007</v>
       </c>
       <c r="G32">
-        <v>0.1007</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="H32">
-        <v>0.28760000000000002</v>
+        <v>0.3982</v>
       </c>
       <c r="I32">
-        <v>0.3982</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="J32">
-        <v>0.46739999999999998</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="K32">
-        <v>0.53169999999999995</v>
+        <v>0.56510000000000005</v>
       </c>
       <c r="L32">
-        <v>0.56510000000000005</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="M32">
-        <v>0.65090000000000003</v>
+        <v>0.59570000000000001</v>
       </c>
       <c r="N32">
-        <v>0.59570000000000001</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="O32">
-        <v>0.63619999999999999</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="P32">
-        <v>0.60489999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="R32">
-        <v>0.67559999999999998</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="S32">
-        <v>0.81089999999999995</v>
+        <v>1.4853000000000001</v>
       </c>
       <c r="T32">
-        <v>1.4853000000000001</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="U32">
         <v>0.75090000000000001</v>
@@ -6931,13 +6841,10 @@
       <c r="Y32">
         <v>0.75090000000000001</v>
       </c>
-      <c r="Z32">
-        <v>0.75090000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6952,49 +6859,49 @@
         <v>1997</v>
       </c>
       <c r="F33">
-        <v>1.5299999999999999E-2</v>
+        <v>9.06E-2</v>
       </c>
       <c r="G33">
-        <v>9.06E-2</v>
+        <v>0.35549999999999998</v>
       </c>
       <c r="H33">
-        <v>0.35549999999999998</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="I33">
-        <v>0.43219999999999997</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="J33">
-        <v>0.49309999999999998</v>
+        <v>0.54759999999999998</v>
       </c>
       <c r="K33">
-        <v>0.54759999999999998</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="L33">
-        <v>0.54530000000000001</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="M33">
-        <v>0.58330000000000004</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="N33">
-        <v>0.58550000000000002</v>
+        <v>0.60709999999999997</v>
       </c>
       <c r="O33">
-        <v>0.60709999999999997</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="P33">
-        <v>0.63149999999999995</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="Q33">
-        <v>0.86329999999999996</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="R33">
-        <v>0.59460000000000002</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="S33">
-        <v>0.71179999999999999</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="T33">
-        <v>0.66180000000000005</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="U33">
         <v>0.86929999999999996</v>
@@ -7011,13 +6918,10 @@
       <c r="Y33">
         <v>0.86929999999999996</v>
       </c>
-      <c r="Z33">
-        <v>0.86929999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7032,49 +6936,49 @@
         <v>1998</v>
       </c>
       <c r="F34">
-        <v>1.52E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="G34">
-        <v>8.0500000000000002E-2</v>
+        <v>0.20910000000000001</v>
       </c>
       <c r="H34">
-        <v>0.20910000000000001</v>
+        <v>0.35389999999999999</v>
       </c>
       <c r="I34">
-        <v>0.35389999999999999</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="J34">
-        <v>0.50409999999999999</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="K34">
-        <v>0.51719999999999999</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="L34">
-        <v>0.54200000000000004</v>
+        <v>0.64119999999999999</v>
       </c>
       <c r="M34">
-        <v>0.64119999999999999</v>
+        <v>0.6099</v>
       </c>
       <c r="N34">
-        <v>0.6099</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="O34">
-        <v>0.67689999999999995</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="P34">
-        <v>0.80779999999999996</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="Q34">
-        <v>0.71740000000000004</v>
+        <v>0.81</v>
       </c>
       <c r="R34">
-        <v>0.81</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="S34">
-        <v>0.77329999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="T34">
-        <v>0.751</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="U34">
         <v>0.79790000000000005</v>
@@ -7091,13 +6995,10 @@
       <c r="Y34">
         <v>0.79790000000000005</v>
       </c>
-      <c r="Z34">
-        <v>0.79790000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7112,49 +7013,49 @@
         <v>1999</v>
       </c>
       <c r="F35">
-        <v>1.52E-2</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G35">
-        <v>0.13519999999999999</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="H35">
-        <v>0.25019999999999998</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="I35">
-        <v>0.34549999999999997</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="J35">
-        <v>0.42509999999999998</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="K35">
-        <v>0.52649999999999997</v>
+        <v>0.55689999999999995</v>
       </c>
       <c r="L35">
-        <v>0.55689999999999995</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="M35">
-        <v>0.57269999999999999</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="N35">
-        <v>0.61170000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="O35">
-        <v>0.70299999999999996</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="P35">
-        <v>0.66500000000000004</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="Q35">
-        <v>0.79890000000000005</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="R35">
-        <v>0.75539999999999996</v>
+        <v>0.87870000000000004</v>
       </c>
       <c r="S35">
-        <v>0.87870000000000004</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="T35">
-        <v>0.73480000000000001</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="U35">
         <v>0.81869999999999998</v>
@@ -7171,13 +7072,10 @@
       <c r="Y35">
         <v>0.81869999999999998</v>
       </c>
-      <c r="Z35">
-        <v>0.81869999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7192,49 +7090,49 @@
         <v>2000</v>
       </c>
       <c r="F36">
-        <v>1.5100000000000001E-2</v>
+        <v>0.18990000000000001</v>
       </c>
       <c r="G36">
-        <v>0.18990000000000001</v>
+        <v>0.3216</v>
       </c>
       <c r="H36">
-        <v>0.3216</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="I36">
-        <v>0.47289999999999999</v>
+        <v>0.5766</v>
       </c>
       <c r="J36">
-        <v>0.5766</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="K36">
-        <v>0.65980000000000005</v>
+        <v>0.71760000000000002</v>
       </c>
       <c r="L36">
-        <v>0.71760000000000002</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="M36">
-        <v>0.72789999999999999</v>
+        <v>0.75390000000000001</v>
       </c>
       <c r="N36">
-        <v>0.75390000000000001</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="O36">
-        <v>0.83779999999999999</v>
+        <v>0.81589999999999996</v>
       </c>
       <c r="P36">
-        <v>0.81589999999999996</v>
+        <v>0.88139999999999996</v>
       </c>
       <c r="Q36">
-        <v>0.88139999999999996</v>
+        <v>0.85540000000000005</v>
       </c>
       <c r="R36">
-        <v>0.85540000000000005</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="S36">
-        <v>0.93910000000000005</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="T36">
-        <v>0.87439999999999996</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="U36">
         <v>0.93359999999999999</v>
@@ -7251,13 +7149,10 @@
       <c r="Y36">
         <v>0.93359999999999999</v>
       </c>
-      <c r="Z36">
-        <v>0.93359999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7272,49 +7167,49 @@
         <v>2001</v>
       </c>
       <c r="F37">
-        <v>1.5100000000000001E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="G37">
-        <v>5.1200000000000002E-2</v>
+        <v>0.28670000000000001</v>
       </c>
       <c r="H37">
-        <v>0.28670000000000001</v>
+        <v>0.48430000000000001</v>
       </c>
       <c r="I37">
-        <v>0.48430000000000001</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="J37">
-        <v>0.65269999999999995</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="K37">
-        <v>0.66449999999999998</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="L37">
-        <v>0.74690000000000001</v>
+        <v>0.8629</v>
       </c>
       <c r="M37">
-        <v>0.8629</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="N37">
-        <v>0.85550000000000004</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="O37">
-        <v>0.88019999999999998</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="P37">
-        <v>0.96299999999999997</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Q37">
-        <v>0.97899999999999998</v>
+        <v>1.0054000000000001</v>
       </c>
       <c r="R37">
-        <v>1.0054000000000001</v>
+        <v>1.0494000000000001</v>
       </c>
       <c r="S37">
-        <v>1.0494000000000001</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="T37">
-        <v>0.99270000000000003</v>
+        <v>0.9768</v>
       </c>
       <c r="U37">
         <v>0.9768</v>
@@ -7331,13 +7226,10 @@
       <c r="Y37">
         <v>0.9768</v>
       </c>
-      <c r="Z37">
-        <v>0.9768</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7352,49 +7244,49 @@
         <v>2002</v>
       </c>
       <c r="F38">
-        <v>1.4999999999999999E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="G38">
-        <v>7.5600000000000001E-2</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="H38">
-        <v>0.35830000000000001</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="I38">
-        <v>0.45750000000000002</v>
+        <v>0.60580000000000001</v>
       </c>
       <c r="J38">
-        <v>0.60580000000000001</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="K38">
-        <v>0.81599999999999995</v>
+        <v>0.7581</v>
       </c>
       <c r="L38">
-        <v>0.7581</v>
+        <v>0.8488</v>
       </c>
       <c r="M38">
-        <v>0.8488</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="N38">
-        <v>0.97709999999999997</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="O38">
-        <v>0.93220000000000003</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="P38">
-        <v>0.91759999999999997</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="Q38">
-        <v>0.99739999999999995</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="R38">
-        <v>0.98899999999999999</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="S38">
-        <v>0.92359999999999998</v>
+        <v>1.125</v>
       </c>
       <c r="T38">
-        <v>1.125</v>
+        <v>1.0572999999999999</v>
       </c>
       <c r="U38">
         <v>1.0572999999999999</v>
@@ -7411,13 +7303,10 @@
       <c r="Y38">
         <v>1.0572999999999999</v>
       </c>
-      <c r="Z38">
-        <v>1.0572999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7432,49 +7321,49 @@
         <v>2003</v>
       </c>
       <c r="F39">
-        <v>1.4999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
-        <v>0.1</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="H39">
-        <v>0.25509999999999999</v>
+        <v>0.4355</v>
       </c>
       <c r="I39">
-        <v>0.4355</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="J39">
-        <v>0.52249999999999996</v>
+        <v>0.58850000000000002</v>
       </c>
       <c r="K39">
-        <v>0.58850000000000002</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="L39">
-        <v>0.75690000000000002</v>
+        <v>0.6915</v>
       </c>
       <c r="M39">
-        <v>0.6915</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="N39">
-        <v>0.74690000000000001</v>
+        <v>0.8246</v>
       </c>
       <c r="O39">
-        <v>0.8246</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="P39">
-        <v>0.76919999999999999</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="Q39">
-        <v>0.88870000000000005</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="R39">
-        <v>0.92659999999999998</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="S39">
-        <v>0.78939999999999999</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="T39">
-        <v>0.84140000000000004</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="U39">
         <v>0.99650000000000005</v>
@@ -7491,13 +7380,10 @@
       <c r="Y39">
         <v>0.99650000000000005</v>
       </c>
-      <c r="Z39">
-        <v>0.99650000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7512,49 +7398,49 @@
         <v>2004</v>
       </c>
       <c r="F40">
-        <v>1.49E-2</v>
+        <v>0.1081</v>
       </c>
       <c r="G40">
-        <v>0.1081</v>
+        <v>0.2</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0.436</v>
       </c>
       <c r="I40">
-        <v>0.436</v>
+        <v>0.48070000000000002</v>
       </c>
       <c r="J40">
-        <v>0.48070000000000002</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="K40">
-        <v>0.53190000000000004</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="L40">
-        <v>0.64780000000000004</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="M40">
-        <v>0.70679999999999998</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="N40">
-        <v>0.65790000000000004</v>
+        <v>0.70940000000000003</v>
       </c>
       <c r="O40">
-        <v>0.70940000000000003</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="P40">
-        <v>0.80500000000000005</v>
+        <v>0.85809999999999997</v>
       </c>
       <c r="Q40">
-        <v>0.85809999999999997</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="R40">
-        <v>0.77149999999999996</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="S40">
-        <v>0.97040000000000004</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="T40">
-        <v>0.86309999999999998</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="U40">
         <v>0.89590000000000003</v>
@@ -7571,13 +7457,10 @@
       <c r="Y40">
         <v>0.89590000000000003</v>
       </c>
-      <c r="Z40">
-        <v>0.89590000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7592,49 +7475,49 @@
         <v>2005</v>
       </c>
       <c r="F41">
-        <v>1.49E-2</v>
+        <v>0.1162</v>
       </c>
       <c r="G41">
-        <v>0.1162</v>
+        <v>0.26029999999999998</v>
       </c>
       <c r="H41">
-        <v>0.26029999999999998</v>
+        <v>0.43109999999999998</v>
       </c>
       <c r="I41">
-        <v>0.43109999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="J41">
-        <v>0.50860000000000005</v>
+        <v>0.5393</v>
       </c>
       <c r="K41">
-        <v>0.5393</v>
+        <v>0.56820000000000004</v>
       </c>
       <c r="L41">
-        <v>0.56820000000000004</v>
+        <v>0.63360000000000005</v>
       </c>
       <c r="M41">
-        <v>0.63360000000000005</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="N41">
-        <v>0.65500000000000003</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="O41">
-        <v>0.70269999999999999</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="P41">
-        <v>0.79620000000000002</v>
+        <v>0.81040000000000001</v>
       </c>
       <c r="Q41">
-        <v>0.81040000000000001</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="R41">
-        <v>0.81089999999999995</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="S41">
-        <v>0.76019999999999999</v>
+        <v>1.1449</v>
       </c>
       <c r="T41">
-        <v>1.1449</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="U41">
         <v>0.96779999999999999</v>
@@ -7651,13 +7534,10 @@
       <c r="Y41">
         <v>0.96779999999999999</v>
       </c>
-      <c r="Z41">
-        <v>0.96779999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7672,49 +7552,49 @@
         <v>2006</v>
       </c>
       <c r="F42">
-        <v>1.4800000000000001E-2</v>
+        <v>0.13239999999999999</v>
       </c>
       <c r="G42">
-        <v>0.13239999999999999</v>
+        <v>0.3831</v>
       </c>
       <c r="H42">
-        <v>0.3831</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="I42">
-        <v>0.45750000000000002</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="J42">
-        <v>0.53410000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="K42">
-        <v>0.57399999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="L42">
-        <v>0.59099999999999997</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="M42">
-        <v>0.59789999999999999</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="N42">
-        <v>0.65600000000000003</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="O42">
-        <v>0.69969999999999999</v>
+        <v>0.72589999999999999</v>
       </c>
       <c r="P42">
-        <v>0.72589999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="Q42">
-        <v>0.72199999999999998</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="R42">
-        <v>0.77529999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="S42">
-        <v>0.65800000000000003</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="T42">
-        <v>0.63990000000000002</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="U42">
         <v>0.95499999999999996</v>
@@ -7731,13 +7611,10 @@
       <c r="Y42">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Z42">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7752,49 +7629,49 @@
         <v>2007</v>
       </c>
       <c r="F43">
-        <v>1.4800000000000001E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="G43">
-        <v>4.4499999999999998E-2</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="H43">
-        <v>0.22720000000000001</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="I43">
-        <v>0.37759999999999999</v>
+        <v>0.53520000000000001</v>
       </c>
       <c r="J43">
-        <v>0.53520000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="K43">
-        <v>0.55300000000000005</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="L43">
-        <v>0.60729999999999995</v>
+        <v>0.63280000000000003</v>
       </c>
       <c r="M43">
-        <v>0.63280000000000003</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="N43">
-        <v>0.64749999999999996</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="O43">
-        <v>0.70550000000000002</v>
+        <v>0.77229999999999999</v>
       </c>
       <c r="P43">
-        <v>0.77229999999999999</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="Q43">
-        <v>0.76270000000000004</v>
+        <v>0.81369999999999998</v>
       </c>
       <c r="R43">
-        <v>0.81369999999999998</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="S43">
-        <v>0.87019999999999997</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="T43">
-        <v>0.80079999999999996</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="U43">
         <v>0.86980000000000002</v>
@@ -7811,13 +7688,10 @@
       <c r="Y43">
         <v>0.86980000000000002</v>
       </c>
-      <c r="Z43">
-        <v>0.86980000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7832,49 +7706,49 @@
         <v>2008</v>
       </c>
       <c r="F44">
-        <v>1.52E-2</v>
+        <v>0.1346</v>
       </c>
       <c r="G44">
-        <v>0.1346</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H44">
-        <v>0.24399999999999999</v>
+        <v>0.40789999999999998</v>
       </c>
       <c r="I44">
-        <v>0.40789999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J44">
-        <v>0.56299999999999994</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="K44">
-        <v>0.63649999999999995</v>
+        <v>0.6865</v>
       </c>
       <c r="L44">
-        <v>0.6865</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="M44">
-        <v>0.68179999999999996</v>
+        <v>0.70979999999999999</v>
       </c>
       <c r="N44">
-        <v>0.70979999999999999</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="O44">
-        <v>0.72109999999999996</v>
+        <v>0.74880000000000002</v>
       </c>
       <c r="P44">
-        <v>0.74880000000000002</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="Q44">
-        <v>0.80730000000000002</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="R44">
-        <v>0.84830000000000005</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="S44">
-        <v>0.77549999999999997</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="T44">
-        <v>0.88339999999999996</v>
+        <v>0.83320000000000005</v>
       </c>
       <c r="U44">
         <v>0.83320000000000005</v>
@@ -7891,13 +7765,10 @@
       <c r="Y44">
         <v>0.83320000000000005</v>
       </c>
-      <c r="Z44">
-        <v>0.83320000000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7912,49 +7783,49 @@
         <v>2009</v>
       </c>
       <c r="F45">
-        <v>1.5599999999999999E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="G45">
-        <v>6.6699999999999995E-2</v>
+        <v>0.24479999999999999</v>
       </c>
       <c r="H45">
-        <v>0.24479999999999999</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="I45">
-        <v>0.34310000000000002</v>
+        <v>0.47120000000000001</v>
       </c>
       <c r="J45">
-        <v>0.47120000000000001</v>
+        <v>0.6371</v>
       </c>
       <c r="K45">
-        <v>0.6371</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="L45">
-        <v>0.67020000000000002</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="M45">
-        <v>0.69420000000000004</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="N45">
-        <v>0.74629999999999996</v>
+        <v>0.8226</v>
       </c>
       <c r="O45">
-        <v>0.8226</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="P45">
-        <v>0.76739999999999997</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="Q45">
-        <v>0.81389999999999996</v>
+        <v>1.0146999999999999</v>
       </c>
       <c r="R45">
-        <v>1.0146999999999999</v>
+        <v>0.85029999999999994</v>
       </c>
       <c r="S45">
-        <v>0.85029999999999994</v>
+        <v>0.95820000000000005</v>
       </c>
       <c r="T45">
-        <v>0.95820000000000005</v>
+        <v>1.0334000000000001</v>
       </c>
       <c r="U45">
         <v>1.0334000000000001</v>
@@ -7971,13 +7842,10 @@
       <c r="Y45">
         <v>1.0334000000000001</v>
       </c>
-      <c r="Z45">
-        <v>1.0334000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7992,49 +7860,49 @@
         <v>2010</v>
       </c>
       <c r="F46">
-        <v>1.61E-2</v>
+        <v>0.1089</v>
       </c>
       <c r="G46">
-        <v>0.1089</v>
+        <v>0.2326</v>
       </c>
       <c r="H46">
-        <v>0.2326</v>
+        <v>0.2918</v>
       </c>
       <c r="I46">
-        <v>0.2918</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="J46">
-        <v>0.43319999999999997</v>
+        <v>0.5302</v>
       </c>
       <c r="K46">
-        <v>0.5302</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="L46">
-        <v>0.65820000000000001</v>
+        <v>0.83489999999999998</v>
       </c>
       <c r="M46">
-        <v>0.83489999999999998</v>
+        <v>1.0828</v>
       </c>
       <c r="N46">
-        <v>1.0828</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="O46">
-        <v>1.0276000000000001</v>
+        <v>0.95820000000000005</v>
       </c>
       <c r="P46">
-        <v>0.95820000000000005</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="Q46">
-        <v>0.87629999999999997</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="R46">
-        <v>0.85240000000000005</v>
+        <v>1.1253</v>
       </c>
       <c r="S46">
-        <v>1.1253</v>
+        <v>0.72</v>
       </c>
       <c r="T46">
-        <v>0.72</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="U46">
         <v>0.90210000000000001</v>
@@ -8051,13 +7919,10 @@
       <c r="Y46">
         <v>0.90210000000000001</v>
       </c>
-      <c r="Z46">
-        <v>0.90210000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8072,49 +7937,49 @@
         <v>2011</v>
       </c>
       <c r="F47">
-        <v>1.6500000000000001E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="G47">
-        <v>8.4400000000000003E-2</v>
+        <v>0.2457</v>
       </c>
       <c r="H47">
-        <v>0.2457</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="I47">
-        <v>0.32190000000000002</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="J47">
-        <v>0.38669999999999999</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="K47">
-        <v>0.51419999999999999</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="L47">
-        <v>0.59499999999999997</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="M47">
-        <v>0.67459999999999998</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="N47">
-        <v>0.85340000000000005</v>
+        <v>0.9294</v>
       </c>
       <c r="O47">
-        <v>0.9294</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="P47">
-        <v>0.97799999999999998</v>
+        <v>1.0749</v>
       </c>
       <c r="Q47">
-        <v>1.0749</v>
+        <v>1.0588</v>
       </c>
       <c r="R47">
-        <v>1.0588</v>
+        <v>1.0279</v>
       </c>
       <c r="S47">
-        <v>1.0279</v>
+        <v>1.0557000000000001</v>
       </c>
       <c r="T47">
-        <v>1.0557000000000001</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="U47">
         <v>0.92120000000000002</v>
@@ -8131,13 +7996,10 @@
       <c r="Y47">
         <v>0.92120000000000002</v>
       </c>
-      <c r="Z47">
-        <v>0.92120000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8152,49 +8014,49 @@
         <v>2012</v>
       </c>
       <c r="F48">
-        <v>1.7000000000000001E-2</v>
+        <v>0.129</v>
       </c>
       <c r="G48">
-        <v>0.129</v>
+        <v>0.2145</v>
       </c>
       <c r="H48">
-        <v>0.2145</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="I48">
-        <v>0.35360000000000003</v>
+        <v>0.40939999999999999</v>
       </c>
       <c r="J48">
-        <v>0.40939999999999999</v>
+        <v>0.4889</v>
       </c>
       <c r="K48">
-        <v>0.4889</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="L48">
-        <v>0.65620000000000001</v>
+        <v>0.69069999999999998</v>
       </c>
       <c r="M48">
-        <v>0.69069999999999998</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="N48">
-        <v>0.77749999999999997</v>
+        <v>0.90720000000000001</v>
       </c>
       <c r="O48">
-        <v>0.90720000000000001</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="P48">
-        <v>0.96330000000000005</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="Q48">
         <v>0.96389999999999998</v>
       </c>
       <c r="R48">
-        <v>0.96389999999999998</v>
+        <v>0.9889</v>
       </c>
       <c r="S48">
-        <v>0.9889</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="T48">
-        <v>0.99239999999999995</v>
+        <v>0.9425</v>
       </c>
       <c r="U48">
         <v>0.9425</v>
@@ -8211,13 +8073,10 @@
       <c r="Y48">
         <v>0.9425</v>
       </c>
-      <c r="Z48">
-        <v>0.9425</v>
-      </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8232,49 +8091,49 @@
         <v>2013</v>
       </c>
       <c r="F49">
-        <v>1.7399999999999999E-2</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="G49">
-        <v>0.12970000000000001</v>
+        <v>0.28739999999999999</v>
       </c>
       <c r="H49">
-        <v>0.28739999999999999</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="I49">
-        <v>0.35949999999999999</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="J49">
-        <v>0.46970000000000001</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="K49">
-        <v>0.51039999999999996</v>
+        <v>0.626</v>
       </c>
       <c r="L49">
-        <v>0.626</v>
+        <v>0.71650000000000003</v>
       </c>
       <c r="M49">
-        <v>0.71650000000000003</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="N49">
-        <v>0.73099999999999998</v>
+        <v>0.83130000000000004</v>
       </c>
       <c r="O49">
-        <v>0.83130000000000004</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="P49">
-        <v>0.99890000000000001</v>
+        <v>1.0751999999999999</v>
       </c>
       <c r="Q49">
-        <v>1.0751999999999999</v>
+        <v>1.2302999999999999</v>
       </c>
       <c r="R49">
-        <v>1.2302999999999999</v>
+        <v>1.1187</v>
       </c>
       <c r="S49">
-        <v>1.1187</v>
+        <v>1.0682</v>
       </c>
       <c r="T49">
-        <v>1.0682</v>
+        <v>1.0545</v>
       </c>
       <c r="U49">
         <v>1.0545</v>
@@ -8291,13 +8150,10 @@
       <c r="Y49">
         <v>1.0545</v>
       </c>
-      <c r="Z49">
-        <v>1.0545</v>
-      </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8312,49 +8168,49 @@
         <v>2014</v>
       </c>
       <c r="F50">
-        <v>1.78E-2</v>
+        <v>0.1028</v>
       </c>
       <c r="G50">
-        <v>0.1028</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H50">
-        <v>0.40799999999999997</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="I50">
-        <v>0.46860000000000002</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="J50">
-        <v>0.47970000000000002</v>
+        <v>0.53620000000000001</v>
       </c>
       <c r="K50">
-        <v>0.53620000000000001</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="L50">
-        <v>0.57410000000000005</v>
+        <v>0.61980000000000002</v>
       </c>
       <c r="M50">
-        <v>0.61980000000000002</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="N50">
-        <v>0.65900000000000003</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="O50">
-        <v>0.71740000000000004</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="P50">
-        <v>0.69499999999999995</v>
+        <v>1.1645000000000001</v>
       </c>
       <c r="Q50">
-        <v>1.1645000000000001</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="R50">
-        <v>1.0149999999999999</v>
+        <v>0.94910000000000005</v>
       </c>
       <c r="S50">
-        <v>0.94910000000000005</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="T50">
-        <v>0.96740000000000004</v>
+        <v>1.0579000000000001</v>
       </c>
       <c r="U50">
         <v>1.0579000000000001</v>
@@ -8371,13 +8227,10 @@
       <c r="Y50">
         <v>1.0579000000000001</v>
       </c>
-      <c r="Z50">
-        <v>1.0579000000000001</v>
-      </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8392,49 +8245,49 @@
         <v>2015</v>
       </c>
       <c r="F51">
-        <v>1.83E-2</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="G51">
-        <v>7.5899999999999995E-2</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="H51">
-        <v>0.24709999999999999</v>
+        <v>0.39050000000000001</v>
       </c>
       <c r="I51">
-        <v>0.39050000000000001</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="J51">
-        <v>0.44450000000000001</v>
+        <v>0.4708</v>
       </c>
       <c r="K51">
-        <v>0.4708</v>
+        <v>0.55310000000000004</v>
       </c>
       <c r="L51">
-        <v>0.55310000000000004</v>
+        <v>0.5948</v>
       </c>
       <c r="M51">
-        <v>0.5948</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="N51">
-        <v>0.67490000000000006</v>
+        <v>0.68789999999999996</v>
       </c>
       <c r="O51">
-        <v>0.68789999999999996</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="P51">
-        <v>0.71789999999999998</v>
+        <v>0.8337</v>
       </c>
       <c r="Q51">
-        <v>0.8337</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="R51">
-        <v>0.95230000000000004</v>
+        <v>1.0185</v>
       </c>
       <c r="S51">
-        <v>1.0185</v>
+        <v>1.0892999999999999</v>
       </c>
       <c r="T51">
-        <v>1.0892999999999999</v>
+        <v>1.2493000000000001</v>
       </c>
       <c r="U51">
         <v>1.2493000000000001</v>
@@ -8451,13 +8304,10 @@
       <c r="Y51">
         <v>1.2493000000000001</v>
       </c>
-      <c r="Z51">
-        <v>1.2493000000000001</v>
-      </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8472,49 +8322,49 @@
         <v>2016</v>
       </c>
       <c r="F52">
-        <v>1.8700000000000001E-2</v>
+        <v>0.1653</v>
       </c>
       <c r="G52">
-        <v>0.1653</v>
+        <v>0.24390000000000001</v>
       </c>
       <c r="H52">
-        <v>0.24390000000000001</v>
+        <v>0.3831</v>
       </c>
       <c r="I52">
-        <v>0.3831</v>
+        <v>0.41589999999999999</v>
       </c>
       <c r="J52">
-        <v>0.41589999999999999</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="K52">
-        <v>0.44059999999999999</v>
+        <v>0.46379999999999999</v>
       </c>
       <c r="L52">
-        <v>0.46379999999999999</v>
+        <v>0.5141</v>
       </c>
       <c r="M52">
-        <v>0.5141</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="N52">
-        <v>0.51639999999999997</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="O52">
-        <v>0.51270000000000004</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="P52">
-        <v>0.64800000000000002</v>
+        <v>0.7198</v>
       </c>
       <c r="Q52">
-        <v>0.7198</v>
+        <v>0.5948</v>
       </c>
       <c r="R52">
-        <v>0.5948</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="S52">
-        <v>0.77559999999999996</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="T52">
-        <v>1.4510000000000001</v>
+        <v>1.5802</v>
       </c>
       <c r="U52">
         <v>1.5802</v>
@@ -8531,13 +8381,10 @@
       <c r="Y52">
         <v>1.5802</v>
       </c>
-      <c r="Z52">
-        <v>1.5802</v>
-      </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8552,49 +8399,49 @@
         <v>2017</v>
       </c>
       <c r="F53">
-        <v>1.9099999999999999E-2</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="G53">
-        <v>0.14050000000000001</v>
+        <v>0.3115</v>
       </c>
       <c r="H53">
-        <v>0.3115</v>
+        <v>0.40110000000000001</v>
       </c>
       <c r="I53">
-        <v>0.40110000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="J53">
-        <v>0.47</v>
+        <v>0.5101</v>
       </c>
       <c r="K53">
-        <v>0.5101</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="L53">
-        <v>0.53320000000000001</v>
+        <v>0.54210000000000003</v>
       </c>
       <c r="M53">
-        <v>0.54210000000000003</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="N53">
-        <v>0.57120000000000004</v>
+        <v>0.61809999999999998</v>
       </c>
       <c r="O53">
-        <v>0.61809999999999998</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="P53">
-        <v>0.61270000000000002</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="Q53">
-        <v>0.68969999999999998</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="R53">
-        <v>0.75539999999999996</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="S53">
-        <v>0.75109999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="T53">
-        <v>0.79700000000000004</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="U53">
         <v>0.89190000000000003</v>
@@ -8611,13 +8458,10 @@
       <c r="Y53">
         <v>0.89190000000000003</v>
       </c>
-      <c r="Z53">
-        <v>0.89190000000000003</v>
-      </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8632,49 +8476,49 @@
         <v>2018</v>
       </c>
       <c r="F54">
-        <v>1.9599999999999999E-2</v>
+        <v>0.187</v>
       </c>
       <c r="G54">
-        <v>0.187</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="H54">
-        <v>0.35439999999999999</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="I54">
-        <v>0.46329999999999999</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="J54">
-        <v>0.50290000000000001</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="K54">
-        <v>0.53569999999999995</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="L54">
-        <v>0.55179999999999996</v>
+        <v>0.61739999999999995</v>
       </c>
       <c r="M54">
-        <v>0.61739999999999995</v>
+        <v>0.58960000000000001</v>
       </c>
       <c r="N54">
-        <v>0.58960000000000001</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="O54">
-        <v>0.63929999999999998</v>
+        <v>0.6431</v>
       </c>
       <c r="P54">
-        <v>0.6431</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="Q54">
-        <v>0.67610000000000003</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="R54">
-        <v>0.68869999999999998</v>
+        <v>0.7238</v>
       </c>
       <c r="S54">
-        <v>0.7238</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="T54">
-        <v>0.89700000000000002</v>
+        <v>1.07</v>
       </c>
       <c r="U54">
         <v>1.07</v>
@@ -8691,13 +8535,10 @@
       <c r="Y54">
         <v>1.07</v>
       </c>
-      <c r="Z54">
-        <v>1.07</v>
-      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8712,49 +8553,49 @@
         <v>2019</v>
       </c>
       <c r="F55">
-        <v>0.02</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="G55">
-        <v>6.7699999999999996E-2</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="H55">
-        <v>0.28160000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="I55">
-        <v>0.441</v>
+        <v>0.4844</v>
       </c>
       <c r="J55">
-        <v>0.4844</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="K55">
-        <v>0.52280000000000004</v>
+        <v>0.53979999999999995</v>
       </c>
       <c r="L55">
-        <v>0.53979999999999995</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="M55">
-        <v>0.58140000000000003</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="N55">
-        <v>0.62250000000000005</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="O55">
-        <v>0.61750000000000005</v>
+        <v>0.63070000000000004</v>
       </c>
       <c r="P55">
-        <v>0.63070000000000004</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="Q55">
-        <v>0.68510000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="R55">
-        <v>0.64549999999999996</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="S55">
-        <v>0.84160000000000001</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="T55">
-        <v>0.67900000000000005</v>
+        <v>0.79339999999999999</v>
       </c>
       <c r="U55">
         <v>0.79339999999999999</v>
@@ -8771,7 +8612,4324 @@
       <c r="Y55">
         <v>0.79339999999999999</v>
       </c>
-      <c r="Z55">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1966</v>
+      </c>
+      <c r="F56">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="H56">
+        <v>0.441</v>
+      </c>
+      <c r="I56">
+        <v>0.4844</v>
+      </c>
+      <c r="J56">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="K56">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="L56">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="M56">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="N56">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="O56">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="P56">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="Q56">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="R56">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="T56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="U56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="V56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="W56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="X56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="Z56">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>393</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1967</v>
+      </c>
+      <c r="F57">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H57">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I57">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K57">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L57">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M57">
+        <v>0.7117</v>
+      </c>
+      <c r="N57">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O57">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P57">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R57">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S57">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>393</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1968</v>
+      </c>
+      <c r="F58">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I58">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J58">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L58">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M58">
+        <v>0.7117</v>
+      </c>
+      <c r="N58">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O58">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P58">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R58">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S58">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z58">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1969</v>
+      </c>
+      <c r="F59">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H59">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I59">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J59">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L59">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M59">
+        <v>0.7117</v>
+      </c>
+      <c r="N59">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O59">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P59">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R59">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S59">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1970</v>
+      </c>
+      <c r="F60">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H60">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I60">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J60">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L60">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M60">
+        <v>0.7117</v>
+      </c>
+      <c r="N60">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O60">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P60">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R60">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S60">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1971</v>
+      </c>
+      <c r="F61">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H61">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I61">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J61">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L61">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M61">
+        <v>0.7117</v>
+      </c>
+      <c r="N61">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O61">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P61">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R61">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S61">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z61">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1972</v>
+      </c>
+      <c r="F62">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H62">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I62">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J62">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K62">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L62">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M62">
+        <v>0.7117</v>
+      </c>
+      <c r="N62">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O62">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P62">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q62">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R62">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S62">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1973</v>
+      </c>
+      <c r="F63">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H63">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I63">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J63">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L63">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M63">
+        <v>0.7117</v>
+      </c>
+      <c r="N63">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O63">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P63">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R63">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S63">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z63">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>393</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1974</v>
+      </c>
+      <c r="F64">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="H64">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="J64">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="L64">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="M64">
+        <v>0.7117</v>
+      </c>
+      <c r="N64">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="O64">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="P64">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="Q64">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R64">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="S64">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="T64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="U64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="V64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="W64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="X64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>1.0308999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>1.0308999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1975</v>
+      </c>
+      <c r="F65">
+        <v>0.1575</v>
+      </c>
+      <c r="G65">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="H65">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0.61429999999999996</v>
+      </c>
+      <c r="J65">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="K65">
+        <v>0.7873</v>
+      </c>
+      <c r="L65">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="M65">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="O65">
+        <v>0.97</v>
+      </c>
+      <c r="P65">
+        <v>1.6933</v>
+      </c>
+      <c r="Q65">
+        <v>1.5</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9555</v>
+      </c>
+      <c r="T65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="U65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="V65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="W65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="X65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>2.7444999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>393</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1976</v>
+      </c>
+      <c r="F66">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.2359</v>
+      </c>
+      <c r="H66">
+        <v>0.499</v>
+      </c>
+      <c r="I66">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="J66">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="K66">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="L66">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="M66">
+        <v>1.2062999999999999</v>
+      </c>
+      <c r="N66">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="O66">
+        <v>1.4495</v>
+      </c>
+      <c r="P66">
+        <v>1.6507000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>1.8066</v>
+      </c>
+      <c r="R66">
+        <v>1.8588</v>
+      </c>
+      <c r="S66">
+        <v>1.9555</v>
+      </c>
+      <c r="T66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="U66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="V66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="W66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="X66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>2.7444999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>2.7444999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1977</v>
+      </c>
+      <c r="F67">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H67">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="I67">
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="J67">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K67">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="M67">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="N67">
+        <v>1.1052</v>
+      </c>
+      <c r="O67">
+        <v>1.2341</v>
+      </c>
+      <c r="P67">
+        <v>1.3148</v>
+      </c>
+      <c r="Q67">
+        <v>1.4027000000000001</v>
+      </c>
+      <c r="R67">
+        <v>1.7511000000000001</v>
+      </c>
+      <c r="S67">
+        <v>2.1004999999999998</v>
+      </c>
+      <c r="T67">
+        <v>2.2094</v>
+      </c>
+      <c r="U67">
+        <v>2.2094</v>
+      </c>
+      <c r="V67">
+        <v>2.2094</v>
+      </c>
+      <c r="W67">
+        <v>2.2094</v>
+      </c>
+      <c r="X67">
+        <v>2.2094</v>
+      </c>
+      <c r="Y67">
+        <v>2.2094</v>
+      </c>
+      <c r="Z67">
+        <v>2.2094</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>393</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1978</v>
+      </c>
+      <c r="F68">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.1275</v>
+      </c>
+      <c r="H68">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="I68">
+        <v>0.5302</v>
+      </c>
+      <c r="J68">
+        <v>0.60260000000000002</v>
+      </c>
+      <c r="K68">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="M68">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="N68">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="O68">
+        <v>1.0996999999999999</v>
+      </c>
+      <c r="P68">
+        <v>1.2459</v>
+      </c>
+      <c r="Q68">
+        <v>1.3294999999999999</v>
+      </c>
+      <c r="R68">
+        <v>1.4814000000000001</v>
+      </c>
+      <c r="S68">
+        <v>1.7419</v>
+      </c>
+      <c r="T68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="U68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="V68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="W68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="X68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="Y68">
+        <v>2.3353000000000002</v>
+      </c>
+      <c r="Z68">
+        <v>2.3353000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1979</v>
+      </c>
+      <c r="F69">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H69">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="J69">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="K69">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="L69">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="M69">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N69">
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="O69">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="P69">
+        <v>1.2482</v>
+      </c>
+      <c r="Q69">
+        <v>1.5326</v>
+      </c>
+      <c r="R69">
+        <v>1.552</v>
+      </c>
+      <c r="S69">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="T69">
+        <v>1.9817</v>
+      </c>
+      <c r="U69">
+        <v>1.9817</v>
+      </c>
+      <c r="V69">
+        <v>1.9817</v>
+      </c>
+      <c r="W69">
+        <v>1.9817</v>
+      </c>
+      <c r="X69">
+        <v>1.9817</v>
+      </c>
+      <c r="Y69">
+        <v>1.9817</v>
+      </c>
+      <c r="Z69">
+        <v>1.9817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1980</v>
+      </c>
+      <c r="F70">
+        <v>0.08</v>
+      </c>
+      <c r="G70">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="I70">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="J70">
+        <v>0.4904</v>
+      </c>
+      <c r="K70">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="L70">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="M70">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="N70">
+        <v>0.874</v>
+      </c>
+      <c r="O70">
+        <v>1.0626</v>
+      </c>
+      <c r="P70">
+        <v>1.1623000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>1.2898000000000001</v>
+      </c>
+      <c r="R70">
+        <v>1.3001</v>
+      </c>
+      <c r="S70">
+        <v>1.2699</v>
+      </c>
+      <c r="T70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="U70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="V70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="W70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="X70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>1.3960999999999999</v>
+      </c>
+      <c r="Z70">
+        <v>1.3960999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>393</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1981</v>
+      </c>
+      <c r="F71">
+        <v>0.1074</v>
+      </c>
+      <c r="G71">
+        <v>0.2137</v>
+      </c>
+      <c r="H71">
+        <v>0.3422</v>
+      </c>
+      <c r="I71">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="J71">
+        <v>0.39329999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="L71">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="M71">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="N71">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="O71">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="P71">
+        <v>1.0412999999999999</v>
+      </c>
+      <c r="Q71">
+        <v>1.0989</v>
+      </c>
+      <c r="R71">
+        <v>1.3449</v>
+      </c>
+      <c r="S71">
+        <v>1.4925999999999999</v>
+      </c>
+      <c r="T71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="U71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="V71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="W71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="X71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>1.2128000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1982</v>
+      </c>
+      <c r="F72">
+        <v>0.1181</v>
+      </c>
+      <c r="G72">
+        <v>0.2465</v>
+      </c>
+      <c r="H72">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="I72">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="J72">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="K72">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="M72">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="N72">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="O72">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="P72">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="Q72">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="R72">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="S72">
+        <v>1.0185999999999999</v>
+      </c>
+      <c r="T72">
+        <v>1.1693</v>
+      </c>
+      <c r="U72">
+        <v>1.1693</v>
+      </c>
+      <c r="V72">
+        <v>1.1693</v>
+      </c>
+      <c r="W72">
+        <v>1.1693</v>
+      </c>
+      <c r="X72">
+        <v>1.1693</v>
+      </c>
+      <c r="Y72">
+        <v>1.1693</v>
+      </c>
+      <c r="Z72">
+        <v>1.1693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1983</v>
+      </c>
+      <c r="F73">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="G73">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I73">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="J73">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="K73">
+        <v>0.52</v>
+      </c>
+      <c r="L73">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="M73">
+        <v>0.6179</v>
+      </c>
+      <c r="N73">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="O73">
+        <v>0.88</v>
+      </c>
+      <c r="P73">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="Q73">
+        <v>1.0356000000000001</v>
+      </c>
+      <c r="R73">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="S73">
+        <v>1.3217000000000001</v>
+      </c>
+      <c r="T73">
+        <v>1.4823</v>
+      </c>
+      <c r="U73">
+        <v>1.4823</v>
+      </c>
+      <c r="V73">
+        <v>1.4823</v>
+      </c>
+      <c r="W73">
+        <v>1.4823</v>
+      </c>
+      <c r="X73">
+        <v>1.4823</v>
+      </c>
+      <c r="Y73">
+        <v>1.4823</v>
+      </c>
+      <c r="Z73">
+        <v>1.4823</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>393</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1984</v>
+      </c>
+      <c r="F74">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="H74">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="J74">
+        <v>0.4113</v>
+      </c>
+      <c r="K74">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="L74">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="M74">
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="N74">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="O74">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="P74">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="Q74">
+        <v>1.1364000000000001</v>
+      </c>
+      <c r="R74">
+        <v>1.0258</v>
+      </c>
+      <c r="S74">
+        <v>1.2806999999999999</v>
+      </c>
+      <c r="T74">
+        <v>1.88</v>
+      </c>
+      <c r="U74">
+        <v>1.88</v>
+      </c>
+      <c r="V74">
+        <v>1.88</v>
+      </c>
+      <c r="W74">
+        <v>1.88</v>
+      </c>
+      <c r="X74">
+        <v>1.88</v>
+      </c>
+      <c r="Y74">
+        <v>1.88</v>
+      </c>
+      <c r="Z74">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1985</v>
+      </c>
+      <c r="F75">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H75">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="I75">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="J75">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="K75">
+        <v>0.5474</v>
+      </c>
+      <c r="L75">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="N75">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="O75">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="P75">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="Q75">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="R75">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="S75">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="T75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="U75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="V75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="W75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="X75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="Z75">
+        <v>1.1216999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>393</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1986</v>
+      </c>
+      <c r="F76">
+        <v>0.1555</v>
+      </c>
+      <c r="G76">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H76">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="I76">
+        <v>0.3024</v>
+      </c>
+      <c r="J76">
+        <v>0.3735</v>
+      </c>
+      <c r="K76">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="L76">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="M76">
+        <v>0.6421</v>
+      </c>
+      <c r="N76">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="O76">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="P76">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="Q76">
+        <v>1.19</v>
+      </c>
+      <c r="R76">
+        <v>1.3736999999999999</v>
+      </c>
+      <c r="S76">
+        <v>1.68</v>
+      </c>
+      <c r="T76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="U76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="V76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="W76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="X76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>1.6142000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1987</v>
+      </c>
+      <c r="F77">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="G77">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="H77">
+        <v>0.379</v>
+      </c>
+      <c r="I77">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="J77">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="K77">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="L77">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="M77">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="N77">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="O77">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="P77">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Q77">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R77">
+        <v>1.2406999999999999</v>
+      </c>
+      <c r="S77">
+        <v>1.2031000000000001</v>
+      </c>
+      <c r="T77">
+        <v>1.4157</v>
+      </c>
+      <c r="U77">
+        <v>1.4157</v>
+      </c>
+      <c r="V77">
+        <v>1.4157</v>
+      </c>
+      <c r="W77">
+        <v>1.4157</v>
+      </c>
+      <c r="X77">
+        <v>1.4157</v>
+      </c>
+      <c r="Y77">
+        <v>1.4157</v>
+      </c>
+      <c r="Z77">
+        <v>1.4157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1988</v>
+      </c>
+      <c r="F78">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.187</v>
+      </c>
+      <c r="H78">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="I78">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="J78">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="K78">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="M78">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="N78">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="P78">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="Q78">
+        <v>1.0924</v>
+      </c>
+      <c r="R78">
+        <v>1.0225</v>
+      </c>
+      <c r="S78">
+        <v>1.45</v>
+      </c>
+      <c r="T78">
+        <v>1.4537</v>
+      </c>
+      <c r="U78">
+        <v>1.4537</v>
+      </c>
+      <c r="V78">
+        <v>1.4537</v>
+      </c>
+      <c r="W78">
+        <v>1.4537</v>
+      </c>
+      <c r="X78">
+        <v>1.4537</v>
+      </c>
+      <c r="Y78">
+        <v>1.4537</v>
+      </c>
+      <c r="Z78">
+        <v>1.4537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>393</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1989</v>
+      </c>
+      <c r="F79">
+        <v>0.1389</v>
+      </c>
+      <c r="G79">
+        <v>0.2737</v>
+      </c>
+      <c r="H79">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="I79">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="J79">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="K79">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="M79">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="N79">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="O79">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="P79">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="Q79">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="R79">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="S79">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="T79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="U79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="V79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="W79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="X79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>1.1264000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1990</v>
+      </c>
+      <c r="F80">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="H80">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="I80">
+        <v>0.3906</v>
+      </c>
+      <c r="J80">
+        <v>0.5111</v>
+      </c>
+      <c r="K80">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="L80">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="M80">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="N80">
+        <v>0.53</v>
+      </c>
+      <c r="O80">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="P80">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="Q80">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R80">
+        <v>1.1847000000000001</v>
+      </c>
+      <c r="S80">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="T80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="U80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="V80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="W80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="X80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>1.4668000000000001</v>
+      </c>
+      <c r="Z80">
+        <v>1.4668000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1991</v>
+      </c>
+      <c r="F81">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="G81">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="H81">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="I81">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="J81">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="K81">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="L81">
+        <v>0.5907</v>
+      </c>
+      <c r="M81">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N81">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="O81">
+        <v>1.0996999999999999</v>
+      </c>
+      <c r="P81">
+        <v>0.71850000000000003</v>
+      </c>
+      <c r="Q81">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="R81">
+        <v>1.0174000000000001</v>
+      </c>
+      <c r="S81">
+        <v>1.2051000000000001</v>
+      </c>
+      <c r="T81">
+        <v>2.3828</v>
+      </c>
+      <c r="U81">
+        <v>2.3828</v>
+      </c>
+      <c r="V81">
+        <v>2.3828</v>
+      </c>
+      <c r="W81">
+        <v>2.3828</v>
+      </c>
+      <c r="X81">
+        <v>2.3828</v>
+      </c>
+      <c r="Y81">
+        <v>2.3828</v>
+      </c>
+      <c r="Z81">
+        <v>2.3828</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>393</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1992</v>
+      </c>
+      <c r="F82">
+        <v>0.1356</v>
+      </c>
+      <c r="G82">
+        <v>0.2316</v>
+      </c>
+      <c r="H82">
+        <v>0.3473</v>
+      </c>
+      <c r="I82">
+        <v>0.4743</v>
+      </c>
+      <c r="J82">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="K82">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.621</v>
+      </c>
+      <c r="M82">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="N82">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="O82">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="P82">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="Q82">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="R82">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="S82">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="T82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="U82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="V82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="W82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="X82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="Y82">
+        <v>1.0271999999999999</v>
+      </c>
+      <c r="Z82">
+        <v>1.0271999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>393</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1993</v>
+      </c>
+      <c r="F83">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="H83">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="I83">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J83">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="K83">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="L83">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="M83">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N83">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="O83">
+        <v>0.51</v>
+      </c>
+      <c r="P83">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="Q83">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="R83">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="S83">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="T83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="U83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="V83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="W83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="X83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Y83">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Z83">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>393</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1994</v>
+      </c>
+      <c r="F84">
+        <v>0.1191</v>
+      </c>
+      <c r="G84">
+        <v>0.3</v>
+      </c>
+      <c r="H84">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="I84">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="J84">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="K84">
+        <v>0.5262</v>
+      </c>
+      <c r="L84">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M84">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="N84">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="O84">
+        <v>0.6341</v>
+      </c>
+      <c r="P84">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="Q84">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="R84">
+        <v>0.73</v>
+      </c>
+      <c r="S84">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="T84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="U84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="V84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="W84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="X84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="Y84">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="Z84">
+        <v>0.74550000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1995</v>
+      </c>
+      <c r="F85">
+        <v>0.1108</v>
+      </c>
+      <c r="G85">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="H85">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="I85">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="J85">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="K85">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="L85">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="M85">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="N85">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="O85">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="P85">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="Q85">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="R85">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="S85">
+        <v>0.6804</v>
+      </c>
+      <c r="T85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="U85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="V85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="W85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="X85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="Y85">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="Z85">
+        <v>0.80079999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1996</v>
+      </c>
+      <c r="F86">
+        <v>0.1007</v>
+      </c>
+      <c r="G86">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="H86">
+        <v>0.3982</v>
+      </c>
+      <c r="I86">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="J86">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="K86">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="L86">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="M86">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="N86">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.60489999999999999</v>
+      </c>
+      <c r="P86">
+        <v>0.75</v>
+      </c>
+      <c r="Q86">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="R86">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="S86">
+        <v>1.4853000000000001</v>
+      </c>
+      <c r="T86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="U86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="V86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="W86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="X86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="Y86">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="Z86">
+        <v>0.75090000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1997</v>
+      </c>
+      <c r="F87">
+        <v>9.06E-2</v>
+      </c>
+      <c r="G87">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="H87">
+        <v>0.43219999999999997</v>
+      </c>
+      <c r="I87">
+        <v>0.49309999999999998</v>
+      </c>
+      <c r="J87">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="K87">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="M87">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="N87">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="O87">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="P87">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="Q87">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="R87">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="S87">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="T87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="U87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="V87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="W87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="X87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="Y87">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="Z87">
+        <v>0.86929999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1998</v>
+      </c>
+      <c r="F88">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="G88">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="H88">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="I88">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="J88">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="K88">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L88">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="M88">
+        <v>0.6099</v>
+      </c>
+      <c r="N88">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="O88">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="P88">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="Q88">
+        <v>0.81</v>
+      </c>
+      <c r="R88">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="S88">
+        <v>0.751</v>
+      </c>
+      <c r="T88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="U88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="V88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="W88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="X88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="Y88">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="Z88">
+        <v>0.79790000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1999</v>
+      </c>
+      <c r="F89">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="H89">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="I89">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="J89">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="K89">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="L89">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="M89">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="N89">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="O89">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P89">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="Q89">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="R89">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="S89">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="T89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="U89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="V89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="W89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="X89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="Y89">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="Z89">
+        <v>0.81869999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2000</v>
+      </c>
+      <c r="F90">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="G90">
+        <v>0.3216</v>
+      </c>
+      <c r="H90">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="I90">
+        <v>0.5766</v>
+      </c>
+      <c r="J90">
+        <v>0.65980000000000005</v>
+      </c>
+      <c r="K90">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="L90">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="M90">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="N90">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="O90">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="P90">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="Q90">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="R90">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="S90">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="T90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="U90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="V90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="W90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="X90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Y90">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="Z90">
+        <v>0.93359999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2001</v>
+      </c>
+      <c r="F91">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="G91">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="H91">
+        <v>0.48430000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="J91">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="K91">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="L91">
+        <v>0.8629</v>
+      </c>
+      <c r="M91">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="N91">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="O91">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P91">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="Q91">
+        <v>1.0054000000000001</v>
+      </c>
+      <c r="R91">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="S91">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="T91">
+        <v>0.9768</v>
+      </c>
+      <c r="U91">
+        <v>0.9768</v>
+      </c>
+      <c r="V91">
+        <v>0.9768</v>
+      </c>
+      <c r="W91">
+        <v>0.9768</v>
+      </c>
+      <c r="X91">
+        <v>0.9768</v>
+      </c>
+      <c r="Y91">
+        <v>0.9768</v>
+      </c>
+      <c r="Z91">
+        <v>0.9768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2002</v>
+      </c>
+      <c r="F92">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G92">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="H92">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="I92">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="J92">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K92">
+        <v>0.7581</v>
+      </c>
+      <c r="L92">
+        <v>0.8488</v>
+      </c>
+      <c r="M92">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="N92">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="O92">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="P92">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="Q92">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="R92">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="S92">
+        <v>1.125</v>
+      </c>
+      <c r="T92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="U92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="V92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="W92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="X92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="Y92">
+        <v>1.0572999999999999</v>
+      </c>
+      <c r="Z92">
+        <v>1.0572999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2003</v>
+      </c>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+      <c r="G93">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="H93">
+        <v>0.4355</v>
+      </c>
+      <c r="I93">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J93">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="K93">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="L93">
+        <v>0.6915</v>
+      </c>
+      <c r="M93">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="N93">
+        <v>0.8246</v>
+      </c>
+      <c r="O93">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="P93">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="Q93">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="R93">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="S93">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="T93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="U93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="V93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="W93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="X93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Y93">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Z93">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2004</v>
+      </c>
+      <c r="F94">
+        <v>0.1081</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94">
+        <v>0.436</v>
+      </c>
+      <c r="I94">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="J94">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="K94">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="L94">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="M94">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="N94">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="O94">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P94">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="Q94">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="R94">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="S94">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="T94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="U94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="V94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="W94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="X94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="Y94">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="Z94">
+        <v>0.89590000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2005</v>
+      </c>
+      <c r="F95">
+        <v>0.1162</v>
+      </c>
+      <c r="G95">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="H95">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="I95">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="J95">
+        <v>0.5393</v>
+      </c>
+      <c r="K95">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="L95">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="M95">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="N95">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="O95">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="P95">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="Q95">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="R95">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="S95">
+        <v>1.1449</v>
+      </c>
+      <c r="T95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="U95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="V95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="W95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="X95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="Y95">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="Z95">
+        <v>0.96779999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>393</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2006</v>
+      </c>
+      <c r="F96">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="G96">
+        <v>0.3831</v>
+      </c>
+      <c r="H96">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="I96">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="J96">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="K96">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L96">
+        <v>0.59789999999999999</v>
+      </c>
+      <c r="M96">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="N96">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="O96">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="P96">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="Q96">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="R96">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="S96">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="T96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="U96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="V96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="W96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="X96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Y96">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Z96">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2007</v>
+      </c>
+      <c r="F97">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G97">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="H97">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="I97">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="J97">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K97">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="L97">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="M97">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="N97">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="O97">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="P97">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="Q97">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="R97">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="S97">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="T97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="U97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="V97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="W97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="X97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="Y97">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="Z97">
+        <v>0.86980000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2008</v>
+      </c>
+      <c r="F98">
+        <v>0.1346</v>
+      </c>
+      <c r="G98">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H98">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="I98">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J98">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="K98">
+        <v>0.6865</v>
+      </c>
+      <c r="L98">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="M98">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="N98">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="O98">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="P98">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="Q98">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="R98">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="S98">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="T98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="U98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="V98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="W98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="X98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="Y98">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="Z98">
+        <v>0.83320000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>393</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>2009</v>
+      </c>
+      <c r="F99">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G99">
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="H99">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="I99">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="J99">
+        <v>0.6371</v>
+      </c>
+      <c r="K99">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="L99">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="M99">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="N99">
+        <v>0.8226</v>
+      </c>
+      <c r="O99">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="P99">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="Q99">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="R99">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="S99">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="T99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="U99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="V99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="W99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="X99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>1.0334000000000001</v>
+      </c>
+      <c r="Z99">
+        <v>1.0334000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>2010</v>
+      </c>
+      <c r="F100">
+        <v>0.1089</v>
+      </c>
+      <c r="G100">
+        <v>0.2326</v>
+      </c>
+      <c r="H100">
+        <v>0.2918</v>
+      </c>
+      <c r="I100">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="J100">
+        <v>0.5302</v>
+      </c>
+      <c r="K100">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="M100">
+        <v>1.0828</v>
+      </c>
+      <c r="N100">
+        <v>1.0276000000000001</v>
+      </c>
+      <c r="O100">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="P100">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="Q100">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="R100">
+        <v>1.1253</v>
+      </c>
+      <c r="S100">
+        <v>0.72</v>
+      </c>
+      <c r="T100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="U100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="V100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="W100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="X100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="Y100">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="Z100">
+        <v>0.90210000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2011</v>
+      </c>
+      <c r="F101">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="G101">
+        <v>0.2457</v>
+      </c>
+      <c r="H101">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="I101">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="J101">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="K101">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L101">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="M101">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="N101">
+        <v>0.9294</v>
+      </c>
+      <c r="O101">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P101">
+        <v>1.0749</v>
+      </c>
+      <c r="Q101">
+        <v>1.0588</v>
+      </c>
+      <c r="R101">
+        <v>1.0279</v>
+      </c>
+      <c r="S101">
+        <v>1.0557000000000001</v>
+      </c>
+      <c r="T101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="U101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="V101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="W101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="X101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="Y101">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="Z101">
+        <v>0.92120000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>393</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2012</v>
+      </c>
+      <c r="F102">
+        <v>0.129</v>
+      </c>
+      <c r="G102">
+        <v>0.2145</v>
+      </c>
+      <c r="H102">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="I102">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="J102">
+        <v>0.4889</v>
+      </c>
+      <c r="K102">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="L102">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="M102">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="N102">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="O102">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="P102">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="Q102">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="R102">
+        <v>0.9889</v>
+      </c>
+      <c r="S102">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="T102">
+        <v>0.9425</v>
+      </c>
+      <c r="U102">
+        <v>0.9425</v>
+      </c>
+      <c r="V102">
+        <v>0.9425</v>
+      </c>
+      <c r="W102">
+        <v>0.9425</v>
+      </c>
+      <c r="X102">
+        <v>0.9425</v>
+      </c>
+      <c r="Y102">
+        <v>0.9425</v>
+      </c>
+      <c r="Z102">
+        <v>0.9425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>393</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>2013</v>
+      </c>
+      <c r="F103">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="G103">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="H103">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="I103">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="J103">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="K103">
+        <v>0.626</v>
+      </c>
+      <c r="L103">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="M103">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="N103">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="O103">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="P103">
+        <v>1.0751999999999999</v>
+      </c>
+      <c r="Q103">
+        <v>1.2302999999999999</v>
+      </c>
+      <c r="R103">
+        <v>1.1187</v>
+      </c>
+      <c r="S103">
+        <v>1.0682</v>
+      </c>
+      <c r="T103">
+        <v>1.0545</v>
+      </c>
+      <c r="U103">
+        <v>1.0545</v>
+      </c>
+      <c r="V103">
+        <v>1.0545</v>
+      </c>
+      <c r="W103">
+        <v>1.0545</v>
+      </c>
+      <c r="X103">
+        <v>1.0545</v>
+      </c>
+      <c r="Y103">
+        <v>1.0545</v>
+      </c>
+      <c r="Z103">
+        <v>1.0545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>393</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2014</v>
+      </c>
+      <c r="F104">
+        <v>0.1028</v>
+      </c>
+      <c r="G104">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H104">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="I104">
+        <v>0.47970000000000002</v>
+      </c>
+      <c r="J104">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="K104">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="L104">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="M104">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="N104">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="O104">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="P104">
+        <v>1.1645000000000001</v>
+      </c>
+      <c r="Q104">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="R104">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="S104">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="T104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="U104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="V104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="W104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="X104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="Y104">
+        <v>1.0579000000000001</v>
+      </c>
+      <c r="Z104">
+        <v>1.0579000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2015</v>
+      </c>
+      <c r="F105">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="G105">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="H105">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="I105">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="J105">
+        <v>0.4708</v>
+      </c>
+      <c r="K105">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="L105">
+        <v>0.5948</v>
+      </c>
+      <c r="M105">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="N105">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="O105">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="P105">
+        <v>0.8337</v>
+      </c>
+      <c r="Q105">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="R105">
+        <v>1.0185</v>
+      </c>
+      <c r="S105">
+        <v>1.0892999999999999</v>
+      </c>
+      <c r="T105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="U105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="V105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="W105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="X105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="Y105">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="Z105">
+        <v>1.2493000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>393</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2016</v>
+      </c>
+      <c r="F106">
+        <v>0.1653</v>
+      </c>
+      <c r="G106">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="H106">
+        <v>0.3831</v>
+      </c>
+      <c r="I106">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="J106">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="K106">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="L106">
+        <v>0.5141</v>
+      </c>
+      <c r="M106">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="N106">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="O106">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="P106">
+        <v>0.7198</v>
+      </c>
+      <c r="Q106">
+        <v>0.5948</v>
+      </c>
+      <c r="R106">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="S106">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="T106">
+        <v>1.5802</v>
+      </c>
+      <c r="U106">
+        <v>1.5802</v>
+      </c>
+      <c r="V106">
+        <v>1.5802</v>
+      </c>
+      <c r="W106">
+        <v>1.5802</v>
+      </c>
+      <c r="X106">
+        <v>1.5802</v>
+      </c>
+      <c r="Y106">
+        <v>1.5802</v>
+      </c>
+      <c r="Z106">
+        <v>1.5802</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>2017</v>
+      </c>
+      <c r="F107">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0.3115</v>
+      </c>
+      <c r="H107">
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="I107">
+        <v>0.47</v>
+      </c>
+      <c r="J107">
+        <v>0.5101</v>
+      </c>
+      <c r="K107">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="L107">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="M107">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="N107">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="O107">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="P107">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="Q107">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="R107">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="S107">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="T107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="U107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="V107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="W107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="X107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="Y107">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="Z107">
+        <v>0.89190000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>393</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>2018</v>
+      </c>
+      <c r="F108">
+        <v>0.187</v>
+      </c>
+      <c r="G108">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="H108">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="I108">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="J108">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="K108">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="L108">
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="M108">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="N108">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="O108">
+        <v>0.6431</v>
+      </c>
+      <c r="P108">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="Q108">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="R108">
+        <v>0.7238</v>
+      </c>
+      <c r="S108">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="T108">
+        <v>1.07</v>
+      </c>
+      <c r="U108">
+        <v>1.07</v>
+      </c>
+      <c r="V108">
+        <v>1.07</v>
+      </c>
+      <c r="W108">
+        <v>1.07</v>
+      </c>
+      <c r="X108">
+        <v>1.07</v>
+      </c>
+      <c r="Y108">
+        <v>1.07</v>
+      </c>
+      <c r="Z108">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>393</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2019</v>
+      </c>
+      <c r="F109">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="G109">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="H109">
+        <v>0.441</v>
+      </c>
+      <c r="I109">
+        <v>0.4844</v>
+      </c>
+      <c r="J109">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="K109">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="L109">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="M109">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="N109">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="O109">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="P109">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="Q109">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="R109">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="S109">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="T109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="U109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="V109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="W109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="X109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="Y109">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="Z109">
         <v>0.79339999999999999</v>
       </c>
     </row>
@@ -9313,15 +13471,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -9374,16 +13532,49 @@
         <v>308</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9434,15 +13625,6 @@
       </c>
       <c r="Q2">
         <v>56</v>
-      </c>
-      <c r="R2">
-        <v>56</v>
-      </c>
-      <c r="S2">
-        <v>53.5</v>
-      </c>
-      <c r="T2">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -13904,7 +18086,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14003,7 +18185,7 @@
         <v>49</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -28675,7 +32857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -28921,10 +33103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G14"/>
+      <selection activeCell="B14" sqref="B14:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29002,7 +33184,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1998</v>
+        <v>-1996</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -29014,10 +33196,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1569148</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4.5999999999999999E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -29031,7 +33213,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2001</v>
+        <v>-1997</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -29043,10 +33225,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>861744</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.10199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -29060,7 +33242,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -29072,10 +33254,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2137528</v>
+        <v>1569148</v>
       </c>
       <c r="I5">
-        <v>6.1899999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -29089,7 +33271,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2005</v>
+        <v>-1999</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -29101,10 +33283,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1376099</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>6.1600000000000002E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -29118,7 +33300,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2007</v>
+        <v>-2000</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -29130,10 +33312,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>942721</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>7.3800000000000004E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -29147,7 +33329,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -29159,10 +33341,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1502273</v>
+        <v>861744</v>
       </c>
       <c r="I8">
-        <v>9.5699999999999993E-2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -29176,7 +33358,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2011</v>
+        <v>-2002</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -29188,10 +33370,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>674617</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.1133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -29205,7 +33387,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -29217,10 +33399,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1279421</v>
+        <v>2137528</v>
       </c>
       <c r="I10">
-        <v>6.4699999999999994E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -29234,7 +33416,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2013</v>
+        <v>-2004</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -29246,10 +33428,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1929235</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>6.2E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -29263,7 +33445,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -29275,10 +33457,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2155853</v>
+        <v>1376099</v>
       </c>
       <c r="I12">
-        <v>8.09E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -29292,7 +33474,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2017</v>
+        <v>-2006</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -29304,10 +33486,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1417811</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>6.3200000000000006E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -29321,7 +33503,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -29333,9 +33515,357 @@
         <v>1</v>
       </c>
       <c r="H14">
+        <v>942721</v>
+      </c>
+      <c r="I14">
+        <v>7.3800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>-2008</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1502273</v>
+      </c>
+      <c r="I16">
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>-2010</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2011</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>674617</v>
+      </c>
+      <c r="I18">
+        <v>0.1133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2012</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1279421</v>
+      </c>
+      <c r="I19">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2013</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1929235</v>
+      </c>
+      <c r="I20">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>-2014</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2015</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2155853</v>
+      </c>
+      <c r="I22">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-2016</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2017</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1417811</v>
+      </c>
+      <c r="I24">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>-2018</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2019</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>1722611</v>
       </c>
-      <c r="I14">
+      <c r="I26">
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
@@ -47943,295 +52473,295 @@
         <v>345</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
